--- a/TicketsContratos2025.xlsx
+++ b/TicketsContratos2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacao\Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77399578-2981-4991-8699-CF9B9D73E4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB575080-0E9F-4154-86B7-12B0B6006919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tickets" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="67">
   <si>
     <t>NOTA</t>
   </si>
@@ -235,6 +235,12 @@
   <si>
     <t>ANGELONI</t>
   </si>
+  <si>
+    <t xml:space="preserve">POSTO CAPOEIRAS FLORIANOPOLIS </t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -312,6 +318,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,19 +617,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1024"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
@@ -638,7 +644,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -657,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2650560</v>
       </c>
@@ -686,7 +692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2674083</v>
       </c>
@@ -715,7 +721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2674120</v>
       </c>
@@ -744,7 +750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2674123</v>
       </c>
@@ -773,7 +779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2690418</v>
       </c>
@@ -802,7 +808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2690949</v>
       </c>
@@ -831,7 +837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2697061</v>
       </c>
@@ -860,7 +866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2703702</v>
       </c>
@@ -889,7 +895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2703703</v>
       </c>
@@ -918,7 +924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2732137</v>
       </c>
@@ -947,7 +953,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2736995</v>
       </c>
@@ -976,7 +982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2742785</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2755576</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2779008</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2779009</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2779048</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2779051</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2779052</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2783822</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2790333</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2823868</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2825163</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2831067</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2831110</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2835798</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2835799</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2852300</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2858567</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2863888</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2864575</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2870442</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2875711</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2875712</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2875751</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2875754</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>2893056</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2893338</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2898958</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2904594</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2911594</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2911718</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2911719</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2916611</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2939869</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2939990</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2945171</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2945172</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2945173</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>2946821</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2951065</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2952395</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2985000</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2987042</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2987043</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2997195</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>2998604</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>3013933</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>3014702</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>3015772</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>3015773</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>3015813</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>3015816</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>3019786</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>3019787</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>3032330</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>3056349</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>3056435</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>3066761</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>3067811</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>3072387</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>3072424</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>3072675</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>3072676</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>3078213</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>3113479</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>3114286</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>3137030</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>3137072</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>3141240</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>3141968</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>3147712</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>3147713</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>3177591</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>3183009</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>3189201</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>3193168</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>3193249</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>3198905</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>3217161</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>3217162</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>3222055</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>3222060</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>3228258</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>3232790</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>3262763</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>3262767</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>3295048</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>3300261</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>3300537</v>
       </c>
@@ -4138,54 +4144,126 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="5"/>
+      <c r="A122" s="5">
+        <v>3340436</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" s="6">
+        <v>45784</v>
+      </c>
+      <c r="E122" s="5">
+        <v>5</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H122" s="6">
+        <v>45784</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="5"/>
+      <c r="A123" s="5">
+        <v>3386411</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="6">
+        <v>45792</v>
+      </c>
+      <c r="E123" s="5">
+        <v>5</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H123" s="6">
+        <v>45793</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="5"/>
+      <c r="A124" s="5">
+        <v>3386451</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" s="6">
+        <v>45792</v>
+      </c>
+      <c r="E124" s="5">
+        <v>5</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H124" s="6">
+        <v>45793</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="5"/>
+      <c r="A125" s="5">
+        <v>3421257</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" s="6">
+        <v>45799</v>
+      </c>
+      <c r="E125" s="5">
+        <v>5</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H125" s="6">
+        <v>45800</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -4196,7 +4274,7 @@
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -4207,7 +4285,7 @@
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -4218,7 +4296,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -4229,7 +4307,7 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -4240,7 +4318,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -4251,7 +4329,7 @@
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -4262,7 +4340,7 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -4273,7 +4351,7 @@
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -4284,7 +4362,7 @@
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -4295,7 +4373,7 @@
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -4306,7 +4384,7 @@
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -4317,7 +4395,7 @@
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -4328,7 +4406,7 @@
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="D139" s="6"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -4339,7 +4417,7 @@
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -4350,7 +4428,7 @@
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -4361,7 +4439,7 @@
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -4372,7 +4450,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -4383,7 +4461,7 @@
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -4394,7 +4472,7 @@
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -4405,7 +4483,7 @@
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -4416,7 +4494,7 @@
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -4427,7 +4505,7 @@
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -4438,7 +4516,7 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -4449,7 +4527,7 @@
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -4460,7 +4538,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -4471,7 +4549,7 @@
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -4482,7 +4560,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -4493,7 +4571,7 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -4504,7 +4582,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="D155" s="6"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -4515,7 +4593,7 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="D156" s="6"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -4526,7 +4604,7 @@
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="6"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -4537,7 +4615,7 @@
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="6"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -4548,7 +4626,7 @@
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="D159" s="6"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -4559,7 +4637,7 @@
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -4570,7 +4648,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="6"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -4581,7 +4659,7 @@
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="6"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -4592,7 +4670,7 @@
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -4603,7 +4681,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -4614,7 +4692,7 @@
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -4625,7 +4703,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="6"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -4636,7 +4714,7 @@
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="D167" s="6"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -4647,7 +4725,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="D168" s="6"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -4658,7 +4736,7 @@
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+      <c r="D169" s="6"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -4669,7 +4747,7 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -4680,7 +4758,7 @@
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="6"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -4691,7 +4769,7 @@
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="6"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -4702,7 +4780,7 @@
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="6"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -4713,7 +4791,7 @@
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="6"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -4724,7 +4802,7 @@
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="6"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -4735,7 +4813,7 @@
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="6"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -4746,7 +4824,7 @@
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="6"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -4757,7 +4835,7 @@
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="6"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -4768,7 +4846,7 @@
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -4779,7 +4857,7 @@
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="6"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -4790,7 +4868,7 @@
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+      <c r="D181" s="6"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -4801,7 +4879,7 @@
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
+      <c r="D182" s="6"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -4812,7 +4890,7 @@
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -4823,7 +4901,7 @@
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -4834,7 +4912,7 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -4845,7 +4923,7 @@
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="6"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -4856,7 +4934,7 @@
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
+      <c r="D187" s="6"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -4867,7 +4945,7 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
+      <c r="D188" s="6"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -4878,7 +4956,7 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
+      <c r="D189" s="6"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -4889,7 +4967,7 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+      <c r="D190" s="6"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -4900,7 +4978,7 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
@@ -4911,7 +4989,7 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="D192" s="6"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -4922,7 +5000,7 @@
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+      <c r="D193" s="6"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -4933,7 +5011,7 @@
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="D194" s="6"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -4944,7 +5022,7 @@
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+      <c r="D195" s="6"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
@@ -4955,7 +5033,7 @@
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
+      <c r="D196" s="6"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
@@ -4966,7 +5044,7 @@
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+      <c r="D197" s="6"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
@@ -4977,7 +5055,7 @@
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+      <c r="D198" s="6"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -4988,7 +5066,7 @@
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+      <c r="D199" s="6"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
@@ -4999,7 +5077,7 @@
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+      <c r="D200" s="6"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -5010,7 +5088,7 @@
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
+      <c r="D201" s="6"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
@@ -5021,7 +5099,7 @@
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+      <c r="D202" s="6"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
@@ -5032,7 +5110,7 @@
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+      <c r="D203" s="6"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
@@ -5043,7 +5121,7 @@
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+      <c r="D204" s="6"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -5054,7 +5132,7 @@
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+      <c r="D205" s="6"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
@@ -5065,7 +5143,7 @@
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
+      <c r="D206" s="6"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
@@ -5076,7 +5154,7 @@
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
+      <c r="D207" s="6"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
@@ -5087,7 +5165,7 @@
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
+      <c r="D208" s="6"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
@@ -5098,7 +5176,7 @@
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+      <c r="D209" s="6"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
@@ -5109,7 +5187,7 @@
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
+      <c r="D210" s="6"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
@@ -5120,7 +5198,7 @@
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+      <c r="D211" s="6"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -5131,7 +5209,7 @@
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
+      <c r="D212" s="6"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -5142,7 +5220,7 @@
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+      <c r="D213" s="6"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -5153,7 +5231,7 @@
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+      <c r="D214" s="6"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
@@ -5164,7 +5242,7 @@
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
+      <c r="D215" s="6"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -5175,7 +5253,7 @@
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
+      <c r="D216" s="6"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -5186,7 +5264,7 @@
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
+      <c r="D217" s="6"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -5197,7 +5275,7 @@
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
+      <c r="D218" s="6"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
@@ -5208,7 +5286,7 @@
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
+      <c r="D219" s="6"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
@@ -5219,7 +5297,7 @@
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
+      <c r="D220" s="6"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -5230,7 +5308,7 @@
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
+      <c r="D221" s="6"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
@@ -5241,7 +5319,7 @@
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
+      <c r="D222" s="6"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
@@ -5252,7 +5330,7 @@
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
+      <c r="D223" s="6"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
@@ -5263,7 +5341,7 @@
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
+      <c r="D224" s="6"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
@@ -5274,7 +5352,7 @@
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
+      <c r="D225" s="6"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -5285,7 +5363,7 @@
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
+      <c r="D226" s="6"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -5296,7 +5374,7 @@
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
+      <c r="D227" s="6"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -5307,7 +5385,7 @@
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
+      <c r="D228" s="6"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
@@ -5318,7 +5396,7 @@
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
+      <c r="D229" s="6"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
@@ -5329,7 +5407,7 @@
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
+      <c r="D230" s="6"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
@@ -5340,7 +5418,7 @@
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
+      <c r="D231" s="6"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
@@ -5351,7 +5429,7 @@
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
+      <c r="D232" s="6"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
@@ -5362,7 +5440,7 @@
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
+      <c r="D233" s="6"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
@@ -5373,7 +5451,7 @@
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
+      <c r="D234" s="6"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
@@ -5384,7 +5462,7 @@
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
+      <c r="D235" s="6"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
@@ -5395,7 +5473,7 @@
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
+      <c r="D236" s="6"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
@@ -5406,7 +5484,7 @@
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
+      <c r="D237" s="6"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
@@ -5417,7 +5495,7 @@
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
+      <c r="D238" s="6"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
@@ -5428,7 +5506,7 @@
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
+      <c r="D239" s="6"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -5439,7 +5517,7 @@
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
+      <c r="D240" s="6"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
@@ -5450,7 +5528,7 @@
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
+      <c r="D241" s="6"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -5461,7 +5539,7 @@
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
+      <c r="D242" s="6"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
@@ -5472,7 +5550,7 @@
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
+      <c r="D243" s="6"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
@@ -5483,7 +5561,7 @@
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
+      <c r="D244" s="6"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
@@ -5494,7 +5572,7 @@
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
+      <c r="D245" s="6"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
@@ -5505,7 +5583,7 @@
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
+      <c r="D246" s="6"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -5516,7 +5594,7 @@
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
+      <c r="D247" s="6"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
@@ -5527,7 +5605,7 @@
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
+      <c r="D248" s="6"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
@@ -5538,7 +5616,7 @@
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
+      <c r="D249" s="6"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -5549,7 +5627,7 @@
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
+      <c r="D250" s="6"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
@@ -5560,7 +5638,7 @@
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
+      <c r="D251" s="6"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
@@ -5571,7 +5649,7 @@
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
+      <c r="D252" s="6"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -5582,7 +5660,7 @@
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
+      <c r="D253" s="6"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
@@ -5593,7 +5671,7 @@
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
+      <c r="D254" s="6"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
@@ -5604,7 +5682,7 @@
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
+      <c r="D255" s="6"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
@@ -5615,7 +5693,7 @@
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
+      <c r="D256" s="6"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
@@ -5626,7 +5704,7 @@
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
+      <c r="D257" s="6"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
@@ -5637,7 +5715,7 @@
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
-      <c r="D258" s="5"/>
+      <c r="D258" s="6"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
@@ -5648,7 +5726,7 @@
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
+      <c r="D259" s="6"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
@@ -5659,7 +5737,7 @@
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
+      <c r="D260" s="6"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
@@ -5670,7 +5748,7 @@
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
+      <c r="D261" s="6"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
@@ -5681,7 +5759,7 @@
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
+      <c r="D262" s="6"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
@@ -5692,7 +5770,7 @@
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
+      <c r="D263" s="6"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
@@ -5703,7 +5781,7 @@
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
+      <c r="D264" s="6"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
@@ -5714,7 +5792,7 @@
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
+      <c r="D265" s="6"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
@@ -5725,7 +5803,7 @@
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
+      <c r="D266" s="6"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
@@ -5736,7 +5814,7 @@
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
+      <c r="D267" s="6"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
@@ -5747,7 +5825,7 @@
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
+      <c r="D268" s="6"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
@@ -5758,7 +5836,7 @@
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
-      <c r="D269" s="5"/>
+      <c r="D269" s="6"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
@@ -5769,7 +5847,7 @@
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
+      <c r="D270" s="6"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
@@ -5780,7 +5858,7 @@
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
+      <c r="D271" s="6"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
@@ -5791,7 +5869,7 @@
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
+      <c r="D272" s="6"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
@@ -5802,7 +5880,7 @@
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
-      <c r="D273" s="5"/>
+      <c r="D273" s="6"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
@@ -5813,7 +5891,7 @@
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
-      <c r="D274" s="5"/>
+      <c r="D274" s="6"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
@@ -5824,7 +5902,7 @@
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
+      <c r="D275" s="6"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
@@ -5835,7 +5913,7 @@
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
+      <c r="D276" s="6"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
@@ -5846,7 +5924,7 @@
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
+      <c r="D277" s="6"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
@@ -5857,7 +5935,7 @@
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
+      <c r="D278" s="6"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
@@ -5868,7 +5946,7 @@
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
-      <c r="D279" s="5"/>
+      <c r="D279" s="6"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
@@ -5879,7 +5957,7 @@
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
-      <c r="D280" s="5"/>
+      <c r="D280" s="6"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
@@ -5890,7 +5968,7 @@
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
+      <c r="D281" s="6"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
@@ -5901,7 +5979,7 @@
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
-      <c r="D282" s="5"/>
+      <c r="D282" s="6"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
@@ -5912,7 +5990,7 @@
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
-      <c r="D283" s="5"/>
+      <c r="D283" s="6"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
@@ -5923,7 +6001,7 @@
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
+      <c r="D284" s="6"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
@@ -5934,7 +6012,7 @@
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
+      <c r="D285" s="6"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
@@ -5945,7 +6023,7 @@
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
-      <c r="D286" s="5"/>
+      <c r="D286" s="6"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
@@ -5956,7 +6034,7 @@
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
-      <c r="D287" s="5"/>
+      <c r="D287" s="6"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
@@ -5967,7 +6045,7 @@
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
-      <c r="D288" s="5"/>
+      <c r="D288" s="6"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
@@ -5978,7 +6056,7 @@
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
-      <c r="D289" s="5"/>
+      <c r="D289" s="6"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
@@ -5989,7 +6067,7 @@
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
-      <c r="D290" s="5"/>
+      <c r="D290" s="6"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
@@ -6000,7 +6078,7 @@
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
-      <c r="D291" s="5"/>
+      <c r="D291" s="6"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
@@ -6011,7 +6089,7 @@
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
+      <c r="D292" s="6"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
@@ -6022,7 +6100,7 @@
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
-      <c r="D293" s="5"/>
+      <c r="D293" s="6"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
@@ -6033,7 +6111,7 @@
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
+      <c r="D294" s="6"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -6044,7 +6122,7 @@
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
-      <c r="D295" s="5"/>
+      <c r="D295" s="6"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -6055,7 +6133,7 @@
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
+      <c r="D296" s="6"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -6066,7 +6144,7 @@
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
-      <c r="D297" s="5"/>
+      <c r="D297" s="6"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
@@ -6077,7 +6155,7 @@
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
+      <c r="D298" s="6"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
@@ -6088,7 +6166,7 @@
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
-      <c r="D299" s="5"/>
+      <c r="D299" s="6"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
@@ -6099,7 +6177,7 @@
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
+      <c r="D300" s="6"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
@@ -6110,7 +6188,7 @@
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
+      <c r="D301" s="6"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
@@ -6121,7 +6199,7 @@
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
-      <c r="D302" s="5"/>
+      <c r="D302" s="6"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
@@ -6132,7 +6210,7 @@
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
-      <c r="D303" s="5"/>
+      <c r="D303" s="6"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
@@ -6143,7 +6221,7 @@
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
-      <c r="D304" s="5"/>
+      <c r="D304" s="6"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
@@ -6154,7 +6232,7 @@
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
-      <c r="D305" s="5"/>
+      <c r="D305" s="6"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
@@ -6165,7 +6243,7 @@
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
+      <c r="D306" s="6"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -6176,7 +6254,7 @@
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
+      <c r="D307" s="6"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
@@ -6187,7 +6265,7 @@
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
-      <c r="D308" s="5"/>
+      <c r="D308" s="6"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
@@ -6198,7 +6276,7 @@
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
-      <c r="D309" s="5"/>
+      <c r="D309" s="6"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
@@ -6209,7 +6287,7 @@
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
-      <c r="D310" s="5"/>
+      <c r="D310" s="6"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
@@ -6220,7 +6298,7 @@
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
-      <c r="D311" s="5"/>
+      <c r="D311" s="6"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
@@ -6231,7 +6309,7 @@
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
-      <c r="D312" s="5"/>
+      <c r="D312" s="6"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
@@ -6242,7 +6320,7 @@
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
-      <c r="D313" s="5"/>
+      <c r="D313" s="6"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
@@ -6253,7 +6331,7 @@
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
-      <c r="D314" s="5"/>
+      <c r="D314" s="6"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
@@ -6264,7 +6342,7 @@
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
-      <c r="D315" s="5"/>
+      <c r="D315" s="6"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
@@ -6275,7 +6353,7 @@
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
-      <c r="D316" s="5"/>
+      <c r="D316" s="6"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
@@ -6286,7 +6364,7 @@
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
-      <c r="D317" s="5"/>
+      <c r="D317" s="6"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
@@ -6297,7 +6375,7 @@
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
-      <c r="D318" s="5"/>
+      <c r="D318" s="6"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
@@ -6308,7 +6386,7 @@
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
-      <c r="D319" s="5"/>
+      <c r="D319" s="6"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
@@ -6319,7 +6397,7 @@
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
-      <c r="D320" s="5"/>
+      <c r="D320" s="6"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
@@ -6330,7 +6408,7 @@
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
-      <c r="D321" s="5"/>
+      <c r="D321" s="6"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
@@ -6341,7 +6419,7 @@
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
-      <c r="D322" s="5"/>
+      <c r="D322" s="6"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
@@ -6352,7 +6430,7 @@
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
-      <c r="D323" s="5"/>
+      <c r="D323" s="6"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
@@ -6363,7 +6441,7 @@
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
-      <c r="D324" s="5"/>
+      <c r="D324" s="6"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
@@ -6374,7 +6452,7 @@
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
-      <c r="D325" s="5"/>
+      <c r="D325" s="6"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
@@ -6385,7 +6463,7 @@
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
-      <c r="D326" s="5"/>
+      <c r="D326" s="6"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
@@ -6396,7 +6474,7 @@
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
-      <c r="D327" s="5"/>
+      <c r="D327" s="6"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
@@ -6407,7 +6485,7 @@
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
-      <c r="D328" s="5"/>
+      <c r="D328" s="6"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
@@ -6418,7 +6496,7 @@
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
-      <c r="D329" s="5"/>
+      <c r="D329" s="6"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
@@ -6429,7 +6507,7 @@
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
-      <c r="D330" s="5"/>
+      <c r="D330" s="6"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
@@ -6440,7 +6518,7 @@
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
-      <c r="D331" s="5"/>
+      <c r="D331" s="6"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
@@ -6451,7 +6529,7 @@
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
-      <c r="D332" s="5"/>
+      <c r="D332" s="6"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
@@ -6462,7 +6540,7 @@
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
-      <c r="D333" s="5"/>
+      <c r="D333" s="6"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
@@ -6473,7 +6551,7 @@
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
-      <c r="D334" s="5"/>
+      <c r="D334" s="6"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
@@ -6484,7 +6562,7 @@
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
-      <c r="D335" s="5"/>
+      <c r="D335" s="6"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
@@ -6495,7 +6573,7 @@
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
-      <c r="D336" s="5"/>
+      <c r="D336" s="6"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
@@ -6506,7 +6584,7 @@
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
-      <c r="D337" s="5"/>
+      <c r="D337" s="6"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
@@ -6517,7 +6595,7 @@
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
-      <c r="D338" s="5"/>
+      <c r="D338" s="6"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
@@ -6528,7 +6606,7 @@
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
-      <c r="D339" s="5"/>
+      <c r="D339" s="6"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
@@ -6539,7 +6617,7 @@
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
-      <c r="D340" s="5"/>
+      <c r="D340" s="6"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
@@ -6550,7 +6628,7 @@
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
-      <c r="D341" s="5"/>
+      <c r="D341" s="6"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
@@ -6561,7 +6639,7 @@
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
-      <c r="D342" s="5"/>
+      <c r="D342" s="6"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
@@ -6572,7 +6650,7 @@
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
+      <c r="D343" s="6"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
@@ -6583,7 +6661,7 @@
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
-      <c r="D344" s="5"/>
+      <c r="D344" s="6"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
@@ -6594,7 +6672,7 @@
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
-      <c r="D345" s="5"/>
+      <c r="D345" s="6"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
@@ -6605,7 +6683,7 @@
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
-      <c r="D346" s="5"/>
+      <c r="D346" s="6"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
@@ -6616,7 +6694,7 @@
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
-      <c r="D347" s="5"/>
+      <c r="D347" s="6"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
@@ -6627,7 +6705,7 @@
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
-      <c r="D348" s="5"/>
+      <c r="D348" s="6"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
@@ -6638,7 +6716,7 @@
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
-      <c r="D349" s="5"/>
+      <c r="D349" s="6"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
@@ -6649,7 +6727,7 @@
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
+      <c r="D350" s="6"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
@@ -6660,7 +6738,7 @@
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
-      <c r="D351" s="5"/>
+      <c r="D351" s="6"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
@@ -6671,7 +6749,7 @@
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
-      <c r="D352" s="5"/>
+      <c r="D352" s="6"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
@@ -6682,7 +6760,7 @@
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
-      <c r="D353" s="5"/>
+      <c r="D353" s="6"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
@@ -6693,7 +6771,7 @@
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
-      <c r="D354" s="5"/>
+      <c r="D354" s="6"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
@@ -6704,7 +6782,7 @@
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
-      <c r="D355" s="5"/>
+      <c r="D355" s="6"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
@@ -6715,7 +6793,7 @@
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
-      <c r="D356" s="5"/>
+      <c r="D356" s="6"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
@@ -6726,7 +6804,7 @@
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
-      <c r="D357" s="5"/>
+      <c r="D357" s="6"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
@@ -6737,7 +6815,7 @@
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
-      <c r="D358" s="5"/>
+      <c r="D358" s="6"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
@@ -6748,7 +6826,7 @@
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
-      <c r="D359" s="5"/>
+      <c r="D359" s="6"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
@@ -6759,7 +6837,7 @@
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
-      <c r="D360" s="5"/>
+      <c r="D360" s="6"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
@@ -6770,7 +6848,7 @@
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
-      <c r="D361" s="5"/>
+      <c r="D361" s="6"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
@@ -6781,7 +6859,7 @@
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
-      <c r="D362" s="5"/>
+      <c r="D362" s="6"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
@@ -6792,7 +6870,7 @@
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
-      <c r="D363" s="5"/>
+      <c r="D363" s="6"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
@@ -6803,7 +6881,7 @@
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
-      <c r="D364" s="5"/>
+      <c r="D364" s="6"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
@@ -6814,7 +6892,7 @@
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
-      <c r="D365" s="5"/>
+      <c r="D365" s="6"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
@@ -6825,7 +6903,7 @@
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
-      <c r="D366" s="5"/>
+      <c r="D366" s="6"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
@@ -6836,7 +6914,7 @@
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
-      <c r="D367" s="5"/>
+      <c r="D367" s="6"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
@@ -6847,7 +6925,7 @@
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
-      <c r="D368" s="5"/>
+      <c r="D368" s="6"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
@@ -6858,7 +6936,7 @@
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
+      <c r="D369" s="6"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
@@ -6869,7 +6947,7 @@
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
+      <c r="D370" s="6"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
@@ -6880,7 +6958,7 @@
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
-      <c r="D371" s="5"/>
+      <c r="D371" s="6"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
@@ -6891,7 +6969,7 @@
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
-      <c r="D372" s="5"/>
+      <c r="D372" s="6"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
@@ -6902,7 +6980,7 @@
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
-      <c r="D373" s="5"/>
+      <c r="D373" s="6"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
@@ -6913,7 +6991,7 @@
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
-      <c r="D374" s="5"/>
+      <c r="D374" s="6"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
@@ -6924,7 +7002,7 @@
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
+      <c r="D375" s="6"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
@@ -6935,7 +7013,7 @@
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
+      <c r="D376" s="6"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
@@ -6946,7 +7024,7 @@
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
-      <c r="D377" s="5"/>
+      <c r="D377" s="6"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
@@ -6957,7 +7035,7 @@
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
-      <c r="D378" s="5"/>
+      <c r="D378" s="6"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
@@ -6968,7 +7046,7 @@
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
-      <c r="D379" s="5"/>
+      <c r="D379" s="6"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
@@ -6979,7 +7057,7 @@
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
+      <c r="D380" s="6"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
@@ -6990,7 +7068,7 @@
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
+      <c r="D381" s="6"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
@@ -7001,7 +7079,7 @@
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
-      <c r="D382" s="5"/>
+      <c r="D382" s="6"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
@@ -7012,7 +7090,7 @@
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
-      <c r="D383" s="5"/>
+      <c r="D383" s="6"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
@@ -7023,7 +7101,7 @@
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
+      <c r="D384" s="6"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
       <c r="G384" s="5"/>
@@ -7034,7 +7112,7 @@
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
+      <c r="D385" s="6"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
@@ -7045,7 +7123,7 @@
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
-      <c r="D386" s="5"/>
+      <c r="D386" s="6"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
@@ -7056,7 +7134,7 @@
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
-      <c r="D387" s="5"/>
+      <c r="D387" s="6"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
@@ -7067,7 +7145,7 @@
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
-      <c r="D388" s="5"/>
+      <c r="D388" s="6"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
@@ -7078,7 +7156,7 @@
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
-      <c r="D389" s="5"/>
+      <c r="D389" s="6"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
@@ -7089,7 +7167,7 @@
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
-      <c r="D390" s="5"/>
+      <c r="D390" s="6"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
@@ -7100,7 +7178,7 @@
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
-      <c r="D391" s="5"/>
+      <c r="D391" s="6"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
@@ -7111,7 +7189,7 @@
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
-      <c r="D392" s="5"/>
+      <c r="D392" s="6"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
@@ -7122,7 +7200,7 @@
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
-      <c r="D393" s="5"/>
+      <c r="D393" s="6"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
       <c r="G393" s="5"/>
@@ -7133,7 +7211,7 @@
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
-      <c r="D394" s="5"/>
+      <c r="D394" s="6"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
@@ -7144,7 +7222,7 @@
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
-      <c r="D395" s="5"/>
+      <c r="D395" s="6"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
@@ -7155,7 +7233,7 @@
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
-      <c r="D396" s="5"/>
+      <c r="D396" s="6"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
@@ -7166,7 +7244,7 @@
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
-      <c r="D397" s="5"/>
+      <c r="D397" s="6"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
@@ -7177,7 +7255,7 @@
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
-      <c r="D398" s="5"/>
+      <c r="D398" s="6"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
@@ -7188,7 +7266,7 @@
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
-      <c r="D399" s="5"/>
+      <c r="D399" s="6"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
@@ -7199,7 +7277,7 @@
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
-      <c r="D400" s="5"/>
+      <c r="D400" s="6"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
@@ -7210,7 +7288,7 @@
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
-      <c r="D401" s="5"/>
+      <c r="D401" s="6"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
@@ -7221,7 +7299,7 @@
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
-      <c r="D402" s="5"/>
+      <c r="D402" s="6"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
@@ -7232,7 +7310,7 @@
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
-      <c r="D403" s="5"/>
+      <c r="D403" s="6"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
@@ -7243,7 +7321,7 @@
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
-      <c r="D404" s="5"/>
+      <c r="D404" s="6"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
@@ -7254,7 +7332,7 @@
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
-      <c r="D405" s="5"/>
+      <c r="D405" s="6"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
@@ -7265,7 +7343,7 @@
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
-      <c r="D406" s="5"/>
+      <c r="D406" s="6"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
@@ -7276,7 +7354,7 @@
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
+      <c r="D407" s="6"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
@@ -7287,7 +7365,7 @@
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
+      <c r="D408" s="6"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
@@ -7298,7 +7376,7 @@
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
+      <c r="D409" s="6"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
@@ -7309,7 +7387,7 @@
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
+      <c r="D410" s="6"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
@@ -7320,7 +7398,7 @@
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
+      <c r="D411" s="6"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
@@ -7331,7 +7409,7 @@
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
+      <c r="D412" s="6"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
       <c r="G412" s="5"/>
@@ -7342,7 +7420,7 @@
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
+      <c r="D413" s="6"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
@@ -7353,7 +7431,7 @@
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
+      <c r="D414" s="6"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
@@ -7364,7 +7442,7 @@
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
+      <c r="D415" s="6"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
@@ -7375,7 +7453,7 @@
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
+      <c r="D416" s="6"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
@@ -7386,7 +7464,7 @@
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
+      <c r="D417" s="6"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
@@ -7397,7 +7475,7 @@
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
+      <c r="D418" s="6"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
       <c r="G418" s="5"/>
@@ -7408,7 +7486,7 @@
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
+      <c r="D419" s="6"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
       <c r="G419" s="5"/>
@@ -7419,7 +7497,7 @@
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
+      <c r="D420" s="6"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
       <c r="G420" s="5"/>
@@ -7430,7 +7508,7 @@
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
-      <c r="D421" s="5"/>
+      <c r="D421" s="6"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
       <c r="G421" s="5"/>
@@ -7441,7 +7519,7 @@
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
-      <c r="D422" s="5"/>
+      <c r="D422" s="6"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
@@ -7452,7 +7530,7 @@
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
-      <c r="D423" s="5"/>
+      <c r="D423" s="6"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
       <c r="G423" s="5"/>
@@ -7463,7 +7541,7 @@
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
-      <c r="D424" s="5"/>
+      <c r="D424" s="6"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
       <c r="G424" s="5"/>
@@ -7474,7 +7552,7 @@
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
-      <c r="D425" s="5"/>
+      <c r="D425" s="6"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
       <c r="G425" s="5"/>
@@ -7485,7 +7563,7 @@
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
-      <c r="D426" s="5"/>
+      <c r="D426" s="6"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
@@ -7496,7 +7574,7 @@
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
-      <c r="D427" s="5"/>
+      <c r="D427" s="6"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
       <c r="G427" s="5"/>
@@ -7507,7 +7585,7 @@
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
-      <c r="D428" s="5"/>
+      <c r="D428" s="6"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
       <c r="G428" s="5"/>
@@ -7518,7 +7596,7 @@
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
-      <c r="D429" s="5"/>
+      <c r="D429" s="6"/>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
       <c r="G429" s="5"/>
@@ -7529,7 +7607,7 @@
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
-      <c r="D430" s="5"/>
+      <c r="D430" s="6"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
@@ -7540,7 +7618,7 @@
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
-      <c r="D431" s="5"/>
+      <c r="D431" s="6"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
@@ -7551,7 +7629,7 @@
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
-      <c r="D432" s="5"/>
+      <c r="D432" s="6"/>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
       <c r="G432" s="5"/>
@@ -7562,7 +7640,7 @@
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
-      <c r="D433" s="5"/>
+      <c r="D433" s="6"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
       <c r="G433" s="5"/>
@@ -7573,7 +7651,7 @@
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
-      <c r="D434" s="5"/>
+      <c r="D434" s="6"/>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
       <c r="G434" s="5"/>
@@ -7584,7 +7662,7 @@
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
-      <c r="D435" s="5"/>
+      <c r="D435" s="6"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
       <c r="G435" s="5"/>
@@ -7595,7 +7673,7 @@
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
-      <c r="D436" s="5"/>
+      <c r="D436" s="6"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
       <c r="G436" s="5"/>
@@ -7606,7 +7684,7 @@
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
-      <c r="D437" s="5"/>
+      <c r="D437" s="6"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
@@ -7617,7 +7695,7 @@
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
-      <c r="D438" s="5"/>
+      <c r="D438" s="6"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
@@ -7628,7 +7706,7 @@
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
-      <c r="D439" s="5"/>
+      <c r="D439" s="6"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
@@ -7639,7 +7717,7 @@
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
-      <c r="D440" s="5"/>
+      <c r="D440" s="6"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
       <c r="G440" s="5"/>
@@ -7650,7 +7728,7 @@
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
-      <c r="D441" s="5"/>
+      <c r="D441" s="6"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
       <c r="G441" s="5"/>
@@ -7661,7 +7739,7 @@
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
-      <c r="D442" s="5"/>
+      <c r="D442" s="6"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
       <c r="G442" s="5"/>
@@ -7672,7 +7750,7 @@
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
-      <c r="D443" s="5"/>
+      <c r="D443" s="6"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
@@ -7683,7 +7761,7 @@
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
-      <c r="D444" s="5"/>
+      <c r="D444" s="6"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
@@ -7694,7 +7772,7 @@
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
-      <c r="D445" s="5"/>
+      <c r="D445" s="6"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
@@ -7705,7 +7783,7 @@
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
-      <c r="D446" s="5"/>
+      <c r="D446" s="6"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
       <c r="G446" s="5"/>
@@ -7716,7 +7794,7 @@
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
-      <c r="D447" s="5"/>
+      <c r="D447" s="6"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
       <c r="G447" s="5"/>
@@ -7727,7 +7805,7 @@
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
-      <c r="D448" s="5"/>
+      <c r="D448" s="6"/>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
       <c r="G448" s="5"/>
@@ -7738,7 +7816,7 @@
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
-      <c r="D449" s="5"/>
+      <c r="D449" s="6"/>
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
       <c r="G449" s="5"/>
@@ -7749,7 +7827,7 @@
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
-      <c r="D450" s="5"/>
+      <c r="D450" s="6"/>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
@@ -7760,7 +7838,7 @@
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
-      <c r="D451" s="5"/>
+      <c r="D451" s="6"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
       <c r="G451" s="5"/>
@@ -7771,7 +7849,7 @@
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
-      <c r="D452" s="5"/>
+      <c r="D452" s="6"/>
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
       <c r="G452" s="5"/>
@@ -7782,7 +7860,7 @@
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
-      <c r="D453" s="5"/>
+      <c r="D453" s="6"/>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
       <c r="G453" s="5"/>
@@ -7793,7 +7871,7 @@
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
-      <c r="D454" s="5"/>
+      <c r="D454" s="6"/>
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
       <c r="G454" s="5"/>
@@ -7804,7 +7882,7 @@
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
-      <c r="D455" s="5"/>
+      <c r="D455" s="6"/>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
       <c r="G455" s="5"/>
@@ -7815,7 +7893,7 @@
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
-      <c r="D456" s="5"/>
+      <c r="D456" s="6"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
@@ -7826,7 +7904,7 @@
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
-      <c r="D457" s="5"/>
+      <c r="D457" s="6"/>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
       <c r="G457" s="5"/>
@@ -7837,7 +7915,7 @@
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
-      <c r="D458" s="5"/>
+      <c r="D458" s="6"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
@@ -7848,7 +7926,7 @@
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
-      <c r="D459" s="5"/>
+      <c r="D459" s="6"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
       <c r="G459" s="5"/>
@@ -7859,7 +7937,7 @@
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
-      <c r="D460" s="5"/>
+      <c r="D460" s="6"/>
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
       <c r="G460" s="5"/>
@@ -7870,7 +7948,7 @@
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
-      <c r="D461" s="5"/>
+      <c r="D461" s="6"/>
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
@@ -7881,7 +7959,7 @@
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
-      <c r="D462" s="5"/>
+      <c r="D462" s="6"/>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
@@ -7892,7 +7970,7 @@
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
-      <c r="D463" s="5"/>
+      <c r="D463" s="6"/>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
@@ -7903,7 +7981,7 @@
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
-      <c r="D464" s="5"/>
+      <c r="D464" s="6"/>
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
       <c r="G464" s="5"/>
@@ -7914,7 +7992,7 @@
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
-      <c r="D465" s="5"/>
+      <c r="D465" s="6"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
@@ -7925,7 +8003,7 @@
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
-      <c r="D466" s="5"/>
+      <c r="D466" s="6"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
@@ -7936,7 +8014,7 @@
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
-      <c r="D467" s="5"/>
+      <c r="D467" s="6"/>
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
       <c r="G467" s="5"/>
@@ -7947,7 +8025,7 @@
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
-      <c r="D468" s="5"/>
+      <c r="D468" s="6"/>
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
       <c r="G468" s="5"/>
@@ -7958,7 +8036,7 @@
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
-      <c r="D469" s="5"/>
+      <c r="D469" s="6"/>
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
@@ -7969,7 +8047,7 @@
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
-      <c r="D470" s="5"/>
+      <c r="D470" s="6"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
@@ -7980,7 +8058,7 @@
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
-      <c r="D471" s="5"/>
+      <c r="D471" s="6"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
@@ -7991,7 +8069,7 @@
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
-      <c r="D472" s="5"/>
+      <c r="D472" s="6"/>
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
@@ -8002,7 +8080,7 @@
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
-      <c r="D473" s="5"/>
+      <c r="D473" s="6"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
@@ -8013,7 +8091,7 @@
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
-      <c r="D474" s="5"/>
+      <c r="D474" s="6"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
@@ -8024,7 +8102,7 @@
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
-      <c r="D475" s="5"/>
+      <c r="D475" s="6"/>
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
       <c r="G475" s="5"/>
@@ -8035,7 +8113,7 @@
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
-      <c r="D476" s="5"/>
+      <c r="D476" s="6"/>
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
       <c r="G476" s="5"/>
@@ -8046,7 +8124,7 @@
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
-      <c r="D477" s="5"/>
+      <c r="D477" s="6"/>
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
@@ -8057,7 +8135,7 @@
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
-      <c r="D478" s="5"/>
+      <c r="D478" s="6"/>
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
@@ -8068,7 +8146,7 @@
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
-      <c r="D479" s="5"/>
+      <c r="D479" s="6"/>
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
       <c r="G479" s="5"/>
@@ -8079,7 +8157,7 @@
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
-      <c r="D480" s="5"/>
+      <c r="D480" s="6"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
@@ -8090,7 +8168,7 @@
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
-      <c r="D481" s="5"/>
+      <c r="D481" s="6"/>
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
@@ -8101,7 +8179,7 @@
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
-      <c r="D482" s="5"/>
+      <c r="D482" s="6"/>
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
@@ -8112,7 +8190,7 @@
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
-      <c r="D483" s="5"/>
+      <c r="D483" s="6"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
@@ -8123,7 +8201,7 @@
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
-      <c r="D484" s="5"/>
+      <c r="D484" s="6"/>
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
       <c r="G484" s="5"/>
@@ -8134,7 +8212,7 @@
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
-      <c r="D485" s="5"/>
+      <c r="D485" s="6"/>
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
@@ -8145,7 +8223,7 @@
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
-      <c r="D486" s="5"/>
+      <c r="D486" s="6"/>
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
@@ -8156,7 +8234,7 @@
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
-      <c r="D487" s="5"/>
+      <c r="D487" s="6"/>
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
@@ -8167,7 +8245,7 @@
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
-      <c r="D488" s="5"/>
+      <c r="D488" s="6"/>
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
       <c r="G488" s="5"/>
@@ -8178,7 +8256,7 @@
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
-      <c r="D489" s="5"/>
+      <c r="D489" s="6"/>
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
@@ -8189,7 +8267,7 @@
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
-      <c r="D490" s="5"/>
+      <c r="D490" s="6"/>
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
@@ -8200,7 +8278,7 @@
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
-      <c r="D491" s="5"/>
+      <c r="D491" s="6"/>
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
       <c r="G491" s="5"/>
@@ -8211,7 +8289,7 @@
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
-      <c r="D492" s="5"/>
+      <c r="D492" s="6"/>
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
@@ -8222,7 +8300,7 @@
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
-      <c r="D493" s="5"/>
+      <c r="D493" s="6"/>
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
@@ -8233,7 +8311,7 @@
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
-      <c r="D494" s="5"/>
+      <c r="D494" s="6"/>
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
@@ -8244,7 +8322,7 @@
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
-      <c r="D495" s="5"/>
+      <c r="D495" s="6"/>
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
@@ -8255,7 +8333,7 @@
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
-      <c r="D496" s="5"/>
+      <c r="D496" s="6"/>
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
@@ -8266,7 +8344,7 @@
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
-      <c r="D497" s="5"/>
+      <c r="D497" s="6"/>
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
@@ -8277,7 +8355,7 @@
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
-      <c r="D498" s="5"/>
+      <c r="D498" s="6"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
       <c r="G498" s="5"/>
@@ -8288,7 +8366,7 @@
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
-      <c r="D499" s="5"/>
+      <c r="D499" s="6"/>
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
@@ -8299,7 +8377,7 @@
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
-      <c r="D500" s="5"/>
+      <c r="D500" s="6"/>
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
@@ -8310,7 +8388,7 @@
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
-      <c r="D501" s="5"/>
+      <c r="D501" s="6"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
       <c r="G501" s="5"/>
@@ -8321,7 +8399,7 @@
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
-      <c r="D502" s="5"/>
+      <c r="D502" s="6"/>
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
@@ -8332,7 +8410,7 @@
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
-      <c r="D503" s="5"/>
+      <c r="D503" s="6"/>
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
       <c r="G503" s="5"/>
@@ -8343,7 +8421,7 @@
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
-      <c r="D504" s="5"/>
+      <c r="D504" s="6"/>
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
       <c r="G504" s="5"/>
@@ -8354,7 +8432,7 @@
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
-      <c r="D505" s="5"/>
+      <c r="D505" s="6"/>
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
@@ -8365,7 +8443,7 @@
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
-      <c r="D506" s="5"/>
+      <c r="D506" s="6"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
@@ -8376,7 +8454,7 @@
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
-      <c r="D507" s="5"/>
+      <c r="D507" s="6"/>
       <c r="E507" s="5"/>
       <c r="F507" s="5"/>
       <c r="G507" s="5"/>
@@ -8387,7 +8465,7 @@
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
-      <c r="D508" s="5"/>
+      <c r="D508" s="6"/>
       <c r="E508" s="5"/>
       <c r="F508" s="5"/>
       <c r="G508" s="5"/>
@@ -8398,7 +8476,7 @@
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
-      <c r="D509" s="5"/>
+      <c r="D509" s="6"/>
       <c r="E509" s="5"/>
       <c r="F509" s="5"/>
       <c r="G509" s="5"/>
@@ -8409,7 +8487,7 @@
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
-      <c r="D510" s="5"/>
+      <c r="D510" s="6"/>
       <c r="E510" s="5"/>
       <c r="F510" s="5"/>
       <c r="G510" s="5"/>
@@ -8420,7 +8498,7 @@
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
-      <c r="D511" s="5"/>
+      <c r="D511" s="6"/>
       <c r="E511" s="5"/>
       <c r="F511" s="5"/>
       <c r="G511" s="5"/>
@@ -8431,7 +8509,7 @@
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
-      <c r="D512" s="5"/>
+      <c r="D512" s="6"/>
       <c r="E512" s="5"/>
       <c r="F512" s="5"/>
       <c r="G512" s="5"/>
@@ -8442,7 +8520,7 @@
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
-      <c r="D513" s="5"/>
+      <c r="D513" s="6"/>
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
       <c r="G513" s="5"/>
@@ -8453,7 +8531,7 @@
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
-      <c r="D514" s="5"/>
+      <c r="D514" s="6"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
@@ -8464,7 +8542,7 @@
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
-      <c r="D515" s="5"/>
+      <c r="D515" s="6"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
       <c r="G515" s="5"/>
@@ -8475,7 +8553,7 @@
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
-      <c r="D516" s="5"/>
+      <c r="D516" s="6"/>
       <c r="E516" s="5"/>
       <c r="F516" s="5"/>
       <c r="G516" s="5"/>
@@ -8486,7 +8564,7 @@
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
-      <c r="D517" s="5"/>
+      <c r="D517" s="6"/>
       <c r="E517" s="5"/>
       <c r="F517" s="5"/>
       <c r="G517" s="5"/>
@@ -8497,7 +8575,7 @@
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
-      <c r="D518" s="5"/>
+      <c r="D518" s="6"/>
       <c r="E518" s="5"/>
       <c r="F518" s="5"/>
       <c r="G518" s="5"/>
@@ -8508,7 +8586,7 @@
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
-      <c r="D519" s="5"/>
+      <c r="D519" s="6"/>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
       <c r="G519" s="5"/>
@@ -8519,7 +8597,7 @@
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
-      <c r="D520" s="5"/>
+      <c r="D520" s="6"/>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
@@ -8530,7 +8608,7 @@
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
-      <c r="D521" s="5"/>
+      <c r="D521" s="6"/>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
@@ -8541,7 +8619,7 @@
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
-      <c r="D522" s="5"/>
+      <c r="D522" s="6"/>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
@@ -8552,7 +8630,7 @@
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
-      <c r="D523" s="5"/>
+      <c r="D523" s="6"/>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
       <c r="G523" s="5"/>
@@ -8563,7 +8641,7 @@
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
-      <c r="D524" s="5"/>
+      <c r="D524" s="6"/>
       <c r="E524" s="5"/>
       <c r="F524" s="5"/>
       <c r="G524" s="5"/>
@@ -8574,7 +8652,7 @@
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
-      <c r="D525" s="5"/>
+      <c r="D525" s="6"/>
       <c r="E525" s="5"/>
       <c r="F525" s="5"/>
       <c r="G525" s="5"/>
@@ -8585,7 +8663,7 @@
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
-      <c r="D526" s="5"/>
+      <c r="D526" s="6"/>
       <c r="E526" s="5"/>
       <c r="F526" s="5"/>
       <c r="G526" s="5"/>
@@ -8596,7 +8674,7 @@
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
-      <c r="D527" s="5"/>
+      <c r="D527" s="6"/>
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
       <c r="G527" s="5"/>
@@ -8607,7 +8685,7 @@
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
-      <c r="D528" s="5"/>
+      <c r="D528" s="6"/>
       <c r="E528" s="5"/>
       <c r="F528" s="5"/>
       <c r="G528" s="5"/>
@@ -8618,7 +8696,7 @@
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
-      <c r="D529" s="5"/>
+      <c r="D529" s="6"/>
       <c r="E529" s="5"/>
       <c r="F529" s="5"/>
       <c r="G529" s="5"/>
@@ -8629,7 +8707,7 @@
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
-      <c r="D530" s="5"/>
+      <c r="D530" s="6"/>
       <c r="E530" s="5"/>
       <c r="F530" s="5"/>
       <c r="G530" s="5"/>
@@ -8640,7 +8718,7 @@
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
-      <c r="D531" s="5"/>
+      <c r="D531" s="6"/>
       <c r="E531" s="5"/>
       <c r="F531" s="5"/>
       <c r="G531" s="5"/>
@@ -8651,7 +8729,7 @@
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
-      <c r="D532" s="5"/>
+      <c r="D532" s="6"/>
       <c r="E532" s="5"/>
       <c r="F532" s="5"/>
       <c r="G532" s="5"/>
@@ -8662,7 +8740,7 @@
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
-      <c r="D533" s="5"/>
+      <c r="D533" s="6"/>
       <c r="E533" s="5"/>
       <c r="F533" s="5"/>
       <c r="G533" s="5"/>
@@ -8673,7 +8751,7 @@
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
-      <c r="D534" s="5"/>
+      <c r="D534" s="6"/>
       <c r="E534" s="5"/>
       <c r="F534" s="5"/>
       <c r="G534" s="5"/>
@@ -8684,7 +8762,7 @@
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
-      <c r="D535" s="5"/>
+      <c r="D535" s="6"/>
       <c r="E535" s="5"/>
       <c r="F535" s="5"/>
       <c r="G535" s="5"/>
@@ -8695,7 +8773,7 @@
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
-      <c r="D536" s="5"/>
+      <c r="D536" s="6"/>
       <c r="E536" s="5"/>
       <c r="F536" s="5"/>
       <c r="G536" s="5"/>
@@ -8706,7 +8784,7 @@
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
-      <c r="D537" s="5"/>
+      <c r="D537" s="6"/>
       <c r="E537" s="5"/>
       <c r="F537" s="5"/>
       <c r="G537" s="5"/>
@@ -8717,7 +8795,7 @@
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
-      <c r="D538" s="5"/>
+      <c r="D538" s="6"/>
       <c r="E538" s="5"/>
       <c r="F538" s="5"/>
       <c r="G538" s="5"/>
@@ -8728,7 +8806,7 @@
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
-      <c r="D539" s="5"/>
+      <c r="D539" s="6"/>
       <c r="E539" s="5"/>
       <c r="F539" s="5"/>
       <c r="G539" s="5"/>
@@ -8739,7 +8817,7 @@
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
-      <c r="D540" s="5"/>
+      <c r="D540" s="6"/>
       <c r="E540" s="5"/>
       <c r="F540" s="5"/>
       <c r="G540" s="5"/>
@@ -8750,7 +8828,7 @@
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
-      <c r="D541" s="5"/>
+      <c r="D541" s="6"/>
       <c r="E541" s="5"/>
       <c r="F541" s="5"/>
       <c r="G541" s="5"/>
@@ -8761,7 +8839,7 @@
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
-      <c r="D542" s="5"/>
+      <c r="D542" s="6"/>
       <c r="E542" s="5"/>
       <c r="F542" s="5"/>
       <c r="G542" s="5"/>
@@ -8772,7 +8850,7 @@
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
-      <c r="D543" s="5"/>
+      <c r="D543" s="6"/>
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
       <c r="G543" s="5"/>
@@ -8783,7 +8861,7 @@
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
-      <c r="D544" s="5"/>
+      <c r="D544" s="6"/>
       <c r="E544" s="5"/>
       <c r="F544" s="5"/>
       <c r="G544" s="5"/>
@@ -8794,7 +8872,7 @@
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
-      <c r="D545" s="5"/>
+      <c r="D545" s="6"/>
       <c r="E545" s="5"/>
       <c r="F545" s="5"/>
       <c r="G545" s="5"/>
@@ -8805,7 +8883,7 @@
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
-      <c r="D546" s="5"/>
+      <c r="D546" s="6"/>
       <c r="E546" s="5"/>
       <c r="F546" s="5"/>
       <c r="G546" s="5"/>
@@ -8816,7 +8894,7 @@
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
-      <c r="D547" s="5"/>
+      <c r="D547" s="6"/>
       <c r="E547" s="5"/>
       <c r="F547" s="5"/>
       <c r="G547" s="5"/>
@@ -8827,7 +8905,7 @@
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
-      <c r="D548" s="5"/>
+      <c r="D548" s="6"/>
       <c r="E548" s="5"/>
       <c r="F548" s="5"/>
       <c r="G548" s="5"/>
@@ -8838,7 +8916,7 @@
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
-      <c r="D549" s="5"/>
+      <c r="D549" s="6"/>
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
       <c r="G549" s="5"/>
@@ -8849,7 +8927,7 @@
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
-      <c r="D550" s="5"/>
+      <c r="D550" s="6"/>
       <c r="E550" s="5"/>
       <c r="F550" s="5"/>
       <c r="G550" s="5"/>
@@ -8860,7 +8938,7 @@
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
-      <c r="D551" s="5"/>
+      <c r="D551" s="6"/>
       <c r="E551" s="5"/>
       <c r="F551" s="5"/>
       <c r="G551" s="5"/>
@@ -8871,7 +8949,7 @@
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
-      <c r="D552" s="5"/>
+      <c r="D552" s="6"/>
       <c r="E552" s="5"/>
       <c r="F552" s="5"/>
       <c r="G552" s="5"/>
@@ -8882,7 +8960,7 @@
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
-      <c r="D553" s="5"/>
+      <c r="D553" s="6"/>
       <c r="E553" s="5"/>
       <c r="F553" s="5"/>
       <c r="G553" s="5"/>
@@ -8893,7 +8971,7 @@
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
-      <c r="D554" s="5"/>
+      <c r="D554" s="6"/>
       <c r="E554" s="5"/>
       <c r="F554" s="5"/>
       <c r="G554" s="5"/>
@@ -8904,7 +8982,7 @@
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
-      <c r="D555" s="5"/>
+      <c r="D555" s="6"/>
       <c r="E555" s="5"/>
       <c r="F555" s="5"/>
       <c r="G555" s="5"/>
@@ -8915,7 +8993,7 @@
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
-      <c r="D556" s="5"/>
+      <c r="D556" s="6"/>
       <c r="E556" s="5"/>
       <c r="F556" s="5"/>
       <c r="G556" s="5"/>
@@ -8926,7 +9004,7 @@
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
-      <c r="D557" s="5"/>
+      <c r="D557" s="6"/>
       <c r="E557" s="5"/>
       <c r="F557" s="5"/>
       <c r="G557" s="5"/>
@@ -8937,7 +9015,7 @@
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
-      <c r="D558" s="5"/>
+      <c r="D558" s="6"/>
       <c r="E558" s="5"/>
       <c r="F558" s="5"/>
       <c r="G558" s="5"/>
@@ -8948,7 +9026,7 @@
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
-      <c r="D559" s="5"/>
+      <c r="D559" s="6"/>
       <c r="E559" s="5"/>
       <c r="F559" s="5"/>
       <c r="G559" s="5"/>
@@ -8959,7 +9037,7 @@
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
-      <c r="D560" s="5"/>
+      <c r="D560" s="6"/>
       <c r="E560" s="5"/>
       <c r="F560" s="5"/>
       <c r="G560" s="5"/>
@@ -8970,7 +9048,7 @@
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
-      <c r="D561" s="5"/>
+      <c r="D561" s="6"/>
       <c r="E561" s="5"/>
       <c r="F561" s="5"/>
       <c r="G561" s="5"/>
@@ -8981,7 +9059,7 @@
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
-      <c r="D562" s="5"/>
+      <c r="D562" s="6"/>
       <c r="E562" s="5"/>
       <c r="F562" s="5"/>
       <c r="G562" s="5"/>
@@ -8992,7 +9070,7 @@
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
-      <c r="D563" s="5"/>
+      <c r="D563" s="6"/>
       <c r="E563" s="5"/>
       <c r="F563" s="5"/>
       <c r="G563" s="5"/>
@@ -9003,7 +9081,7 @@
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
-      <c r="D564" s="5"/>
+      <c r="D564" s="6"/>
       <c r="E564" s="5"/>
       <c r="F564" s="5"/>
       <c r="G564" s="5"/>
@@ -9014,7 +9092,7 @@
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
-      <c r="D565" s="5"/>
+      <c r="D565" s="6"/>
       <c r="E565" s="5"/>
       <c r="F565" s="5"/>
       <c r="G565" s="5"/>
@@ -9025,7 +9103,7 @@
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
-      <c r="D566" s="5"/>
+      <c r="D566" s="6"/>
       <c r="E566" s="5"/>
       <c r="F566" s="5"/>
       <c r="G566" s="5"/>
@@ -9036,7 +9114,7 @@
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
-      <c r="D567" s="5"/>
+      <c r="D567" s="6"/>
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
       <c r="G567" s="5"/>
@@ -9047,7 +9125,7 @@
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
-      <c r="D568" s="5"/>
+      <c r="D568" s="6"/>
       <c r="E568" s="5"/>
       <c r="F568" s="5"/>
       <c r="G568" s="5"/>
@@ -9058,7 +9136,7 @@
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
-      <c r="D569" s="5"/>
+      <c r="D569" s="6"/>
       <c r="E569" s="5"/>
       <c r="F569" s="5"/>
       <c r="G569" s="5"/>
@@ -9069,7 +9147,7 @@
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
-      <c r="D570" s="5"/>
+      <c r="D570" s="6"/>
       <c r="E570" s="5"/>
       <c r="F570" s="5"/>
       <c r="G570" s="5"/>
@@ -9080,7 +9158,7 @@
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
-      <c r="D571" s="5"/>
+      <c r="D571" s="6"/>
       <c r="E571" s="5"/>
       <c r="F571" s="5"/>
       <c r="G571" s="5"/>
@@ -9091,7 +9169,7 @@
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
-      <c r="D572" s="5"/>
+      <c r="D572" s="6"/>
       <c r="E572" s="5"/>
       <c r="F572" s="5"/>
       <c r="G572" s="5"/>
@@ -9102,7 +9180,7 @@
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
-      <c r="D573" s="5"/>
+      <c r="D573" s="6"/>
       <c r="E573" s="5"/>
       <c r="F573" s="5"/>
       <c r="G573" s="5"/>
@@ -9113,7 +9191,7 @@
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
-      <c r="D574" s="5"/>
+      <c r="D574" s="6"/>
       <c r="E574" s="5"/>
       <c r="F574" s="5"/>
       <c r="G574" s="5"/>
@@ -9124,7 +9202,7 @@
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
-      <c r="D575" s="5"/>
+      <c r="D575" s="6"/>
       <c r="E575" s="5"/>
       <c r="F575" s="5"/>
       <c r="G575" s="5"/>
@@ -9135,7 +9213,7 @@
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
-      <c r="D576" s="5"/>
+      <c r="D576" s="6"/>
       <c r="E576" s="5"/>
       <c r="F576" s="5"/>
       <c r="G576" s="5"/>
@@ -9146,7 +9224,7 @@
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
-      <c r="D577" s="5"/>
+      <c r="D577" s="6"/>
       <c r="E577" s="5"/>
       <c r="F577" s="5"/>
       <c r="G577" s="5"/>
@@ -9157,7 +9235,7 @@
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
-      <c r="D578" s="5"/>
+      <c r="D578" s="6"/>
       <c r="E578" s="5"/>
       <c r="F578" s="5"/>
       <c r="G578" s="5"/>
@@ -9168,7 +9246,7 @@
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
-      <c r="D579" s="5"/>
+      <c r="D579" s="6"/>
       <c r="E579" s="5"/>
       <c r="F579" s="5"/>
       <c r="G579" s="5"/>
@@ -9179,7 +9257,7 @@
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
-      <c r="D580" s="5"/>
+      <c r="D580" s="6"/>
       <c r="E580" s="5"/>
       <c r="F580" s="5"/>
       <c r="G580" s="5"/>
@@ -9190,7 +9268,7 @@
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
-      <c r="D581" s="5"/>
+      <c r="D581" s="6"/>
       <c r="E581" s="5"/>
       <c r="F581" s="5"/>
       <c r="G581" s="5"/>
@@ -9201,7 +9279,7 @@
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
-      <c r="D582" s="5"/>
+      <c r="D582" s="6"/>
       <c r="E582" s="5"/>
       <c r="F582" s="5"/>
       <c r="G582" s="5"/>
@@ -9212,7 +9290,7 @@
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
-      <c r="D583" s="5"/>
+      <c r="D583" s="6"/>
       <c r="E583" s="5"/>
       <c r="F583" s="5"/>
       <c r="G583" s="5"/>
@@ -9223,7 +9301,7 @@
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
-      <c r="D584" s="5"/>
+      <c r="D584" s="6"/>
       <c r="E584" s="5"/>
       <c r="F584" s="5"/>
       <c r="G584" s="5"/>
@@ -9234,7 +9312,7 @@
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
-      <c r="D585" s="5"/>
+      <c r="D585" s="6"/>
       <c r="E585" s="5"/>
       <c r="F585" s="5"/>
       <c r="G585" s="5"/>
@@ -9245,7 +9323,7 @@
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
-      <c r="D586" s="5"/>
+      <c r="D586" s="6"/>
       <c r="E586" s="5"/>
       <c r="F586" s="5"/>
       <c r="G586" s="5"/>
@@ -9256,7 +9334,7 @@
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
-      <c r="D587" s="5"/>
+      <c r="D587" s="6"/>
       <c r="E587" s="5"/>
       <c r="F587" s="5"/>
       <c r="G587" s="5"/>
@@ -9267,7 +9345,7 @@
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
-      <c r="D588" s="5"/>
+      <c r="D588" s="6"/>
       <c r="E588" s="5"/>
       <c r="F588" s="5"/>
       <c r="G588" s="5"/>
@@ -9278,7 +9356,7 @@
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
-      <c r="D589" s="5"/>
+      <c r="D589" s="6"/>
       <c r="E589" s="5"/>
       <c r="F589" s="5"/>
       <c r="G589" s="5"/>
@@ -9289,7 +9367,7 @@
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
-      <c r="D590" s="5"/>
+      <c r="D590" s="6"/>
       <c r="E590" s="5"/>
       <c r="F590" s="5"/>
       <c r="G590" s="5"/>
@@ -9300,7 +9378,7 @@
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
-      <c r="D591" s="5"/>
+      <c r="D591" s="6"/>
       <c r="E591" s="5"/>
       <c r="F591" s="5"/>
       <c r="G591" s="5"/>
@@ -9311,7 +9389,7 @@
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
-      <c r="D592" s="5"/>
+      <c r="D592" s="6"/>
       <c r="E592" s="5"/>
       <c r="F592" s="5"/>
       <c r="G592" s="5"/>
@@ -9322,7 +9400,7 @@
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
-      <c r="D593" s="5"/>
+      <c r="D593" s="6"/>
       <c r="E593" s="5"/>
       <c r="F593" s="5"/>
       <c r="G593" s="5"/>
@@ -9333,7 +9411,7 @@
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
-      <c r="D594" s="5"/>
+      <c r="D594" s="6"/>
       <c r="E594" s="5"/>
       <c r="F594" s="5"/>
       <c r="G594" s="5"/>
@@ -9344,7 +9422,7 @@
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
-      <c r="D595" s="5"/>
+      <c r="D595" s="6"/>
       <c r="E595" s="5"/>
       <c r="F595" s="5"/>
       <c r="G595" s="5"/>
@@ -9355,7 +9433,7 @@
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
-      <c r="D596" s="5"/>
+      <c r="D596" s="6"/>
       <c r="E596" s="5"/>
       <c r="F596" s="5"/>
       <c r="G596" s="5"/>
@@ -9366,7 +9444,7 @@
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
-      <c r="D597" s="5"/>
+      <c r="D597" s="6"/>
       <c r="E597" s="5"/>
       <c r="F597" s="5"/>
       <c r="G597" s="5"/>
@@ -9377,7 +9455,7 @@
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
-      <c r="D598" s="5"/>
+      <c r="D598" s="6"/>
       <c r="E598" s="5"/>
       <c r="F598" s="5"/>
       <c r="G598" s="5"/>
@@ -9388,7 +9466,7 @@
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
-      <c r="D599" s="5"/>
+      <c r="D599" s="6"/>
       <c r="E599" s="5"/>
       <c r="F599" s="5"/>
       <c r="G599" s="5"/>
@@ -9399,7 +9477,7 @@
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
-      <c r="D600" s="5"/>
+      <c r="D600" s="6"/>
       <c r="E600" s="5"/>
       <c r="F600" s="5"/>
       <c r="G600" s="5"/>
@@ -9410,7 +9488,7 @@
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
-      <c r="D601" s="5"/>
+      <c r="D601" s="6"/>
       <c r="E601" s="5"/>
       <c r="F601" s="5"/>
       <c r="G601" s="5"/>
@@ -9421,7 +9499,7 @@
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
-      <c r="D602" s="5"/>
+      <c r="D602" s="6"/>
       <c r="E602" s="5"/>
       <c r="F602" s="5"/>
       <c r="G602" s="5"/>
@@ -9432,7 +9510,7 @@
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
-      <c r="D603" s="5"/>
+      <c r="D603" s="6"/>
       <c r="E603" s="5"/>
       <c r="F603" s="5"/>
       <c r="G603" s="5"/>
@@ -9443,7 +9521,7 @@
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
-      <c r="D604" s="5"/>
+      <c r="D604" s="6"/>
       <c r="E604" s="5"/>
       <c r="F604" s="5"/>
       <c r="G604" s="5"/>
@@ -9454,7 +9532,7 @@
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
-      <c r="D605" s="5"/>
+      <c r="D605" s="6"/>
       <c r="E605" s="5"/>
       <c r="F605" s="5"/>
       <c r="G605" s="5"/>
@@ -9465,7 +9543,7 @@
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
-      <c r="D606" s="5"/>
+      <c r="D606" s="6"/>
       <c r="E606" s="5"/>
       <c r="F606" s="5"/>
       <c r="G606" s="5"/>
@@ -9476,7 +9554,7 @@
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
-      <c r="D607" s="5"/>
+      <c r="D607" s="6"/>
       <c r="E607" s="5"/>
       <c r="F607" s="5"/>
       <c r="G607" s="5"/>
@@ -9487,7 +9565,7 @@
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
-      <c r="D608" s="5"/>
+      <c r="D608" s="6"/>
       <c r="E608" s="5"/>
       <c r="F608" s="5"/>
       <c r="G608" s="5"/>
@@ -9498,7 +9576,7 @@
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
-      <c r="D609" s="5"/>
+      <c r="D609" s="6"/>
       <c r="E609" s="5"/>
       <c r="F609" s="5"/>
       <c r="G609" s="5"/>
@@ -9509,7 +9587,7 @@
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
-      <c r="D610" s="5"/>
+      <c r="D610" s="6"/>
       <c r="E610" s="5"/>
       <c r="F610" s="5"/>
       <c r="G610" s="5"/>
@@ -9520,7 +9598,7 @@
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
-      <c r="D611" s="5"/>
+      <c r="D611" s="6"/>
       <c r="E611" s="5"/>
       <c r="F611" s="5"/>
       <c r="G611" s="5"/>
@@ -9531,7 +9609,7 @@
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
-      <c r="D612" s="5"/>
+      <c r="D612" s="6"/>
       <c r="E612" s="5"/>
       <c r="F612" s="5"/>
       <c r="G612" s="5"/>
@@ -9542,7 +9620,7 @@
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
-      <c r="D613" s="5"/>
+      <c r="D613" s="6"/>
       <c r="E613" s="5"/>
       <c r="F613" s="5"/>
       <c r="G613" s="5"/>
@@ -9553,7 +9631,7 @@
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
-      <c r="D614" s="5"/>
+      <c r="D614" s="6"/>
       <c r="E614" s="5"/>
       <c r="F614" s="5"/>
       <c r="G614" s="5"/>
@@ -9564,7 +9642,7 @@
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
-      <c r="D615" s="5"/>
+      <c r="D615" s="6"/>
       <c r="E615" s="5"/>
       <c r="F615" s="5"/>
       <c r="G615" s="5"/>
@@ -9575,7 +9653,7 @@
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
-      <c r="D616" s="5"/>
+      <c r="D616" s="6"/>
       <c r="E616" s="5"/>
       <c r="F616" s="5"/>
       <c r="G616" s="5"/>
@@ -9586,7 +9664,7 @@
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
-      <c r="D617" s="5"/>
+      <c r="D617" s="6"/>
       <c r="E617" s="5"/>
       <c r="F617" s="5"/>
       <c r="G617" s="5"/>
@@ -9597,7 +9675,7 @@
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
-      <c r="D618" s="5"/>
+      <c r="D618" s="6"/>
       <c r="E618" s="5"/>
       <c r="F618" s="5"/>
       <c r="G618" s="5"/>
@@ -9608,7 +9686,7 @@
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
-      <c r="D619" s="5"/>
+      <c r="D619" s="6"/>
       <c r="E619" s="5"/>
       <c r="F619" s="5"/>
       <c r="G619" s="5"/>
@@ -9619,7 +9697,7 @@
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
-      <c r="D620" s="5"/>
+      <c r="D620" s="6"/>
       <c r="E620" s="5"/>
       <c r="F620" s="5"/>
       <c r="G620" s="5"/>
@@ -9630,7 +9708,7 @@
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
-      <c r="D621" s="5"/>
+      <c r="D621" s="6"/>
       <c r="E621" s="5"/>
       <c r="F621" s="5"/>
       <c r="G621" s="5"/>
@@ -9641,7 +9719,7 @@
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
-      <c r="D622" s="5"/>
+      <c r="D622" s="6"/>
       <c r="E622" s="5"/>
       <c r="F622" s="5"/>
       <c r="G622" s="5"/>
@@ -9652,7 +9730,7 @@
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
-      <c r="D623" s="5"/>
+      <c r="D623" s="6"/>
       <c r="E623" s="5"/>
       <c r="F623" s="5"/>
       <c r="G623" s="5"/>
@@ -9663,7 +9741,7 @@
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
-      <c r="D624" s="5"/>
+      <c r="D624" s="6"/>
       <c r="E624" s="5"/>
       <c r="F624" s="5"/>
       <c r="G624" s="5"/>
@@ -9674,7 +9752,7 @@
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
-      <c r="D625" s="5"/>
+      <c r="D625" s="6"/>
       <c r="E625" s="5"/>
       <c r="F625" s="5"/>
       <c r="G625" s="5"/>
@@ -9685,7 +9763,7 @@
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
-      <c r="D626" s="5"/>
+      <c r="D626" s="6"/>
       <c r="E626" s="5"/>
       <c r="F626" s="5"/>
       <c r="G626" s="5"/>
@@ -9696,7 +9774,7 @@
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
-      <c r="D627" s="5"/>
+      <c r="D627" s="6"/>
       <c r="E627" s="5"/>
       <c r="F627" s="5"/>
       <c r="G627" s="5"/>
@@ -9707,7 +9785,7 @@
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
-      <c r="D628" s="5"/>
+      <c r="D628" s="6"/>
       <c r="E628" s="5"/>
       <c r="F628" s="5"/>
       <c r="G628" s="5"/>
@@ -9718,7 +9796,7 @@
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
-      <c r="D629" s="5"/>
+      <c r="D629" s="6"/>
       <c r="E629" s="5"/>
       <c r="F629" s="5"/>
       <c r="G629" s="5"/>
@@ -9729,7 +9807,7 @@
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
-      <c r="D630" s="5"/>
+      <c r="D630" s="6"/>
       <c r="E630" s="5"/>
       <c r="F630" s="5"/>
       <c r="G630" s="5"/>
@@ -9740,7 +9818,7 @@
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
-      <c r="D631" s="5"/>
+      <c r="D631" s="6"/>
       <c r="E631" s="5"/>
       <c r="F631" s="5"/>
       <c r="G631" s="5"/>
@@ -9751,7 +9829,7 @@
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
-      <c r="D632" s="5"/>
+      <c r="D632" s="6"/>
       <c r="E632" s="5"/>
       <c r="F632" s="5"/>
       <c r="G632" s="5"/>
@@ -9762,7 +9840,7 @@
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
-      <c r="D633" s="5"/>
+      <c r="D633" s="6"/>
       <c r="E633" s="5"/>
       <c r="F633" s="5"/>
       <c r="G633" s="5"/>
@@ -9773,7 +9851,7 @@
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
-      <c r="D634" s="5"/>
+      <c r="D634" s="6"/>
       <c r="E634" s="5"/>
       <c r="F634" s="5"/>
       <c r="G634" s="5"/>
@@ -9784,7 +9862,7 @@
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
-      <c r="D635" s="5"/>
+      <c r="D635" s="6"/>
       <c r="E635" s="5"/>
       <c r="F635" s="5"/>
       <c r="G635" s="5"/>
@@ -9795,7 +9873,7 @@
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
-      <c r="D636" s="5"/>
+      <c r="D636" s="6"/>
       <c r="E636" s="5"/>
       <c r="F636" s="5"/>
       <c r="G636" s="5"/>
@@ -9806,7 +9884,7 @@
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
-      <c r="D637" s="5"/>
+      <c r="D637" s="6"/>
       <c r="E637" s="5"/>
       <c r="F637" s="5"/>
       <c r="G637" s="5"/>
@@ -9817,7 +9895,7 @@
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
-      <c r="D638" s="5"/>
+      <c r="D638" s="6"/>
       <c r="E638" s="5"/>
       <c r="F638" s="5"/>
       <c r="G638" s="5"/>
@@ -9828,7 +9906,7 @@
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
-      <c r="D639" s="5"/>
+      <c r="D639" s="6"/>
       <c r="E639" s="5"/>
       <c r="F639" s="5"/>
       <c r="G639" s="5"/>
@@ -9839,7 +9917,7 @@
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
-      <c r="D640" s="5"/>
+      <c r="D640" s="6"/>
       <c r="E640" s="5"/>
       <c r="F640" s="5"/>
       <c r="G640" s="5"/>
@@ -9850,7 +9928,7 @@
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
-      <c r="D641" s="5"/>
+      <c r="D641" s="6"/>
       <c r="E641" s="5"/>
       <c r="F641" s="5"/>
       <c r="G641" s="5"/>
@@ -9861,7 +9939,7 @@
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
-      <c r="D642" s="5"/>
+      <c r="D642" s="6"/>
       <c r="E642" s="5"/>
       <c r="F642" s="5"/>
       <c r="G642" s="5"/>
@@ -9872,7 +9950,7 @@
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
-      <c r="D643" s="5"/>
+      <c r="D643" s="6"/>
       <c r="E643" s="5"/>
       <c r="F643" s="5"/>
       <c r="G643" s="5"/>
@@ -9883,7 +9961,7 @@
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
-      <c r="D644" s="5"/>
+      <c r="D644" s="6"/>
       <c r="E644" s="5"/>
       <c r="F644" s="5"/>
       <c r="G644" s="5"/>
@@ -9894,7 +9972,7 @@
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
-      <c r="D645" s="5"/>
+      <c r="D645" s="6"/>
       <c r="E645" s="5"/>
       <c r="F645" s="5"/>
       <c r="G645" s="5"/>
@@ -9905,7 +9983,7 @@
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
-      <c r="D646" s="5"/>
+      <c r="D646" s="6"/>
       <c r="E646" s="5"/>
       <c r="F646" s="5"/>
       <c r="G646" s="5"/>
@@ -9916,7 +9994,7 @@
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
-      <c r="D647" s="5"/>
+      <c r="D647" s="6"/>
       <c r="E647" s="5"/>
       <c r="F647" s="5"/>
       <c r="G647" s="5"/>
@@ -9927,7 +10005,7 @@
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
-      <c r="D648" s="5"/>
+      <c r="D648" s="6"/>
       <c r="E648" s="5"/>
       <c r="F648" s="5"/>
       <c r="G648" s="5"/>
@@ -9938,7 +10016,7 @@
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
-      <c r="D649" s="5"/>
+      <c r="D649" s="6"/>
       <c r="E649" s="5"/>
       <c r="F649" s="5"/>
       <c r="G649" s="5"/>
@@ -9949,7 +10027,7 @@
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
-      <c r="D650" s="5"/>
+      <c r="D650" s="6"/>
       <c r="E650" s="5"/>
       <c r="F650" s="5"/>
       <c r="G650" s="5"/>
@@ -9960,7 +10038,7 @@
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
-      <c r="D651" s="5"/>
+      <c r="D651" s="6"/>
       <c r="E651" s="5"/>
       <c r="F651" s="5"/>
       <c r="G651" s="5"/>
@@ -9971,7 +10049,7 @@
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
-      <c r="D652" s="5"/>
+      <c r="D652" s="6"/>
       <c r="E652" s="5"/>
       <c r="F652" s="5"/>
       <c r="G652" s="5"/>
@@ -9982,7 +10060,7 @@
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
-      <c r="D653" s="5"/>
+      <c r="D653" s="6"/>
       <c r="E653" s="5"/>
       <c r="F653" s="5"/>
       <c r="G653" s="5"/>
@@ -9993,7 +10071,7 @@
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
-      <c r="D654" s="5"/>
+      <c r="D654" s="6"/>
       <c r="E654" s="5"/>
       <c r="F654" s="5"/>
       <c r="G654" s="5"/>
@@ -10004,7 +10082,7 @@
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
-      <c r="D655" s="5"/>
+      <c r="D655" s="6"/>
       <c r="E655" s="5"/>
       <c r="F655" s="5"/>
       <c r="G655" s="5"/>
@@ -10015,7 +10093,7 @@
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
-      <c r="D656" s="5"/>
+      <c r="D656" s="6"/>
       <c r="E656" s="5"/>
       <c r="F656" s="5"/>
       <c r="G656" s="5"/>
@@ -10026,7 +10104,7 @@
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
-      <c r="D657" s="5"/>
+      <c r="D657" s="6"/>
       <c r="E657" s="5"/>
       <c r="F657" s="5"/>
       <c r="G657" s="5"/>
@@ -10037,7 +10115,7 @@
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
-      <c r="D658" s="5"/>
+      <c r="D658" s="6"/>
       <c r="E658" s="5"/>
       <c r="F658" s="5"/>
       <c r="G658" s="5"/>
@@ -10048,7 +10126,7 @@
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
-      <c r="D659" s="5"/>
+      <c r="D659" s="6"/>
       <c r="E659" s="5"/>
       <c r="F659" s="5"/>
       <c r="G659" s="5"/>
@@ -10059,7 +10137,7 @@
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
-      <c r="D660" s="5"/>
+      <c r="D660" s="6"/>
       <c r="E660" s="5"/>
       <c r="F660" s="5"/>
       <c r="G660" s="5"/>
@@ -10070,7 +10148,7 @@
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
-      <c r="D661" s="5"/>
+      <c r="D661" s="6"/>
       <c r="E661" s="5"/>
       <c r="F661" s="5"/>
       <c r="G661" s="5"/>
@@ -10081,7 +10159,7 @@
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
-      <c r="D662" s="5"/>
+      <c r="D662" s="6"/>
       <c r="E662" s="5"/>
       <c r="F662" s="5"/>
       <c r="G662" s="5"/>
@@ -10092,7 +10170,7 @@
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
-      <c r="D663" s="5"/>
+      <c r="D663" s="6"/>
       <c r="E663" s="5"/>
       <c r="F663" s="5"/>
       <c r="G663" s="5"/>
@@ -10103,7 +10181,7 @@
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
-      <c r="D664" s="5"/>
+      <c r="D664" s="6"/>
       <c r="E664" s="5"/>
       <c r="F664" s="5"/>
       <c r="G664" s="5"/>
@@ -10114,7 +10192,7 @@
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
-      <c r="D665" s="5"/>
+      <c r="D665" s="6"/>
       <c r="E665" s="5"/>
       <c r="F665" s="5"/>
       <c r="G665" s="5"/>
@@ -10125,7 +10203,7 @@
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
-      <c r="D666" s="5"/>
+      <c r="D666" s="6"/>
       <c r="E666" s="5"/>
       <c r="F666" s="5"/>
       <c r="G666" s="5"/>
@@ -10136,7 +10214,7 @@
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
-      <c r="D667" s="5"/>
+      <c r="D667" s="6"/>
       <c r="E667" s="5"/>
       <c r="F667" s="5"/>
       <c r="G667" s="5"/>
@@ -10147,7 +10225,7 @@
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
-      <c r="D668" s="5"/>
+      <c r="D668" s="6"/>
       <c r="E668" s="5"/>
       <c r="F668" s="5"/>
       <c r="G668" s="5"/>
@@ -10158,7 +10236,7 @@
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
-      <c r="D669" s="5"/>
+      <c r="D669" s="6"/>
       <c r="E669" s="5"/>
       <c r="F669" s="5"/>
       <c r="G669" s="5"/>
@@ -10169,7 +10247,7 @@
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
-      <c r="D670" s="5"/>
+      <c r="D670" s="6"/>
       <c r="E670" s="5"/>
       <c r="F670" s="5"/>
       <c r="G670" s="5"/>
@@ -10180,7 +10258,7 @@
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
-      <c r="D671" s="5"/>
+      <c r="D671" s="6"/>
       <c r="E671" s="5"/>
       <c r="F671" s="5"/>
       <c r="G671" s="5"/>
@@ -10191,7 +10269,7 @@
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
-      <c r="D672" s="5"/>
+      <c r="D672" s="6"/>
       <c r="E672" s="5"/>
       <c r="F672" s="5"/>
       <c r="G672" s="5"/>
@@ -10202,7 +10280,7 @@
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
-      <c r="D673" s="5"/>
+      <c r="D673" s="6"/>
       <c r="E673" s="5"/>
       <c r="F673" s="5"/>
       <c r="G673" s="5"/>
@@ -10213,7 +10291,7 @@
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
-      <c r="D674" s="5"/>
+      <c r="D674" s="6"/>
       <c r="E674" s="5"/>
       <c r="F674" s="5"/>
       <c r="G674" s="5"/>
@@ -10224,7 +10302,7 @@
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
-      <c r="D675" s="5"/>
+      <c r="D675" s="6"/>
       <c r="E675" s="5"/>
       <c r="F675" s="5"/>
       <c r="G675" s="5"/>
@@ -10235,7 +10313,7 @@
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
-      <c r="D676" s="5"/>
+      <c r="D676" s="6"/>
       <c r="E676" s="5"/>
       <c r="F676" s="5"/>
       <c r="G676" s="5"/>
@@ -10246,7 +10324,7 @@
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
-      <c r="D677" s="5"/>
+      <c r="D677" s="6"/>
       <c r="E677" s="5"/>
       <c r="F677" s="5"/>
       <c r="G677" s="5"/>
@@ -10257,7 +10335,7 @@
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
-      <c r="D678" s="5"/>
+      <c r="D678" s="6"/>
       <c r="E678" s="5"/>
       <c r="F678" s="5"/>
       <c r="G678" s="5"/>
@@ -10268,7 +10346,7 @@
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
-      <c r="D679" s="5"/>
+      <c r="D679" s="6"/>
       <c r="E679" s="5"/>
       <c r="F679" s="5"/>
       <c r="G679" s="5"/>
@@ -10279,7 +10357,7 @@
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
-      <c r="D680" s="5"/>
+      <c r="D680" s="6"/>
       <c r="E680" s="5"/>
       <c r="F680" s="5"/>
       <c r="G680" s="5"/>
@@ -10290,7 +10368,7 @@
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
-      <c r="D681" s="5"/>
+      <c r="D681" s="6"/>
       <c r="E681" s="5"/>
       <c r="F681" s="5"/>
       <c r="G681" s="5"/>
@@ -10301,7 +10379,7 @@
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
-      <c r="D682" s="5"/>
+      <c r="D682" s="6"/>
       <c r="E682" s="5"/>
       <c r="F682" s="5"/>
       <c r="G682" s="5"/>
@@ -10312,7 +10390,7 @@
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
-      <c r="D683" s="5"/>
+      <c r="D683" s="6"/>
       <c r="E683" s="5"/>
       <c r="F683" s="5"/>
       <c r="G683" s="5"/>
@@ -10323,7 +10401,7 @@
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
-      <c r="D684" s="5"/>
+      <c r="D684" s="6"/>
       <c r="E684" s="5"/>
       <c r="F684" s="5"/>
       <c r="G684" s="5"/>
@@ -10334,7 +10412,7 @@
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
-      <c r="D685" s="5"/>
+      <c r="D685" s="6"/>
       <c r="E685" s="5"/>
       <c r="F685" s="5"/>
       <c r="G685" s="5"/>
@@ -10345,7 +10423,7 @@
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
-      <c r="D686" s="5"/>
+      <c r="D686" s="6"/>
       <c r="E686" s="5"/>
       <c r="F686" s="5"/>
       <c r="G686" s="5"/>
@@ -10356,7 +10434,7 @@
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
-      <c r="D687" s="5"/>
+      <c r="D687" s="6"/>
       <c r="E687" s="5"/>
       <c r="F687" s="5"/>
       <c r="G687" s="5"/>
@@ -10367,7 +10445,7 @@
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
-      <c r="D688" s="5"/>
+      <c r="D688" s="6"/>
       <c r="E688" s="5"/>
       <c r="F688" s="5"/>
       <c r="G688" s="5"/>
@@ -10378,7 +10456,7 @@
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
-      <c r="D689" s="5"/>
+      <c r="D689" s="6"/>
       <c r="E689" s="5"/>
       <c r="F689" s="5"/>
       <c r="G689" s="5"/>
@@ -10389,7 +10467,7 @@
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
-      <c r="D690" s="5"/>
+      <c r="D690" s="6"/>
       <c r="E690" s="5"/>
       <c r="F690" s="5"/>
       <c r="G690" s="5"/>
@@ -10400,7 +10478,7 @@
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
-      <c r="D691" s="5"/>
+      <c r="D691" s="6"/>
       <c r="E691" s="5"/>
       <c r="F691" s="5"/>
       <c r="G691" s="5"/>
@@ -10411,7 +10489,7 @@
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
-      <c r="D692" s="5"/>
+      <c r="D692" s="6"/>
       <c r="E692" s="5"/>
       <c r="F692" s="5"/>
       <c r="G692" s="5"/>
@@ -10422,7 +10500,7 @@
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
-      <c r="D693" s="5"/>
+      <c r="D693" s="6"/>
       <c r="E693" s="5"/>
       <c r="F693" s="5"/>
       <c r="G693" s="5"/>
@@ -10433,7 +10511,7 @@
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
-      <c r="D694" s="5"/>
+      <c r="D694" s="6"/>
       <c r="E694" s="5"/>
       <c r="F694" s="5"/>
       <c r="G694" s="5"/>
@@ -10444,7 +10522,7 @@
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
-      <c r="D695" s="5"/>
+      <c r="D695" s="6"/>
       <c r="E695" s="5"/>
       <c r="F695" s="5"/>
       <c r="G695" s="5"/>
@@ -10455,7 +10533,7 @@
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
-      <c r="D696" s="5"/>
+      <c r="D696" s="6"/>
       <c r="E696" s="5"/>
       <c r="F696" s="5"/>
       <c r="G696" s="5"/>
@@ -10466,7 +10544,7 @@
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
-      <c r="D697" s="5"/>
+      <c r="D697" s="6"/>
       <c r="E697" s="5"/>
       <c r="F697" s="5"/>
       <c r="G697" s="5"/>
@@ -10477,7 +10555,7 @@
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
-      <c r="D698" s="5"/>
+      <c r="D698" s="6"/>
       <c r="E698" s="5"/>
       <c r="F698" s="5"/>
       <c r="G698" s="5"/>
@@ -10488,7 +10566,7 @@
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
-      <c r="D699" s="5"/>
+      <c r="D699" s="6"/>
       <c r="E699" s="5"/>
       <c r="F699" s="5"/>
       <c r="G699" s="5"/>
@@ -10499,7 +10577,7 @@
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
-      <c r="D700" s="5"/>
+      <c r="D700" s="6"/>
       <c r="E700" s="5"/>
       <c r="F700" s="5"/>
       <c r="G700" s="5"/>
@@ -10510,7 +10588,7 @@
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
-      <c r="D701" s="5"/>
+      <c r="D701" s="6"/>
       <c r="E701" s="5"/>
       <c r="F701" s="5"/>
       <c r="G701" s="5"/>
@@ -10521,7 +10599,7 @@
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
-      <c r="D702" s="5"/>
+      <c r="D702" s="6"/>
       <c r="E702" s="5"/>
       <c r="F702" s="5"/>
       <c r="G702" s="5"/>
@@ -10532,7 +10610,7 @@
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
-      <c r="D703" s="5"/>
+      <c r="D703" s="6"/>
       <c r="E703" s="5"/>
       <c r="F703" s="5"/>
       <c r="G703" s="5"/>
@@ -10543,7 +10621,7 @@
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
-      <c r="D704" s="5"/>
+      <c r="D704" s="6"/>
       <c r="E704" s="5"/>
       <c r="F704" s="5"/>
       <c r="G704" s="5"/>
@@ -10554,7 +10632,7 @@
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
-      <c r="D705" s="5"/>
+      <c r="D705" s="6"/>
       <c r="E705" s="5"/>
       <c r="F705" s="5"/>
       <c r="G705" s="5"/>
@@ -10565,7 +10643,7 @@
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
-      <c r="D706" s="5"/>
+      <c r="D706" s="6"/>
       <c r="E706" s="5"/>
       <c r="F706" s="5"/>
       <c r="G706" s="5"/>
@@ -10576,7 +10654,7 @@
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
-      <c r="D707" s="5"/>
+      <c r="D707" s="6"/>
       <c r="E707" s="5"/>
       <c r="F707" s="5"/>
       <c r="G707" s="5"/>
@@ -10587,7 +10665,7 @@
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
-      <c r="D708" s="5"/>
+      <c r="D708" s="6"/>
       <c r="E708" s="5"/>
       <c r="F708" s="5"/>
       <c r="G708" s="5"/>
@@ -10598,7 +10676,7 @@
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
-      <c r="D709" s="5"/>
+      <c r="D709" s="6"/>
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
       <c r="G709" s="5"/>
@@ -10609,7 +10687,7 @@
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
-      <c r="D710" s="5"/>
+      <c r="D710" s="6"/>
       <c r="E710" s="5"/>
       <c r="F710" s="5"/>
       <c r="G710" s="5"/>
@@ -10620,7 +10698,7 @@
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
-      <c r="D711" s="5"/>
+      <c r="D711" s="6"/>
       <c r="E711" s="5"/>
       <c r="F711" s="5"/>
       <c r="G711" s="5"/>
@@ -10631,7 +10709,7 @@
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
-      <c r="D712" s="5"/>
+      <c r="D712" s="6"/>
       <c r="E712" s="5"/>
       <c r="F712" s="5"/>
       <c r="G712" s="5"/>
@@ -10642,7 +10720,7 @@
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
-      <c r="D713" s="5"/>
+      <c r="D713" s="6"/>
       <c r="E713" s="5"/>
       <c r="F713" s="5"/>
       <c r="G713" s="5"/>
@@ -10653,7 +10731,7 @@
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
-      <c r="D714" s="5"/>
+      <c r="D714" s="6"/>
       <c r="E714" s="5"/>
       <c r="F714" s="5"/>
       <c r="G714" s="5"/>
@@ -10664,7 +10742,7 @@
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
-      <c r="D715" s="5"/>
+      <c r="D715" s="6"/>
       <c r="E715" s="5"/>
       <c r="F715" s="5"/>
       <c r="G715" s="5"/>
@@ -10675,7 +10753,7 @@
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
-      <c r="D716" s="5"/>
+      <c r="D716" s="6"/>
       <c r="E716" s="5"/>
       <c r="F716" s="5"/>
       <c r="G716" s="5"/>
@@ -10686,7 +10764,7 @@
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
-      <c r="D717" s="5"/>
+      <c r="D717" s="6"/>
       <c r="E717" s="5"/>
       <c r="F717" s="5"/>
       <c r="G717" s="5"/>
@@ -10697,7 +10775,7 @@
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
-      <c r="D718" s="5"/>
+      <c r="D718" s="6"/>
       <c r="E718" s="5"/>
       <c r="F718" s="5"/>
       <c r="G718" s="5"/>
@@ -10708,7 +10786,7 @@
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
-      <c r="D719" s="5"/>
+      <c r="D719" s="6"/>
       <c r="E719" s="5"/>
       <c r="F719" s="5"/>
       <c r="G719" s="5"/>
@@ -10719,7 +10797,7 @@
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
-      <c r="D720" s="5"/>
+      <c r="D720" s="6"/>
       <c r="E720" s="5"/>
       <c r="F720" s="5"/>
       <c r="G720" s="5"/>
@@ -10730,7 +10808,7 @@
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
-      <c r="D721" s="5"/>
+      <c r="D721" s="6"/>
       <c r="E721" s="5"/>
       <c r="F721" s="5"/>
       <c r="G721" s="5"/>
@@ -10741,7 +10819,7 @@
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
-      <c r="D722" s="5"/>
+      <c r="D722" s="6"/>
       <c r="E722" s="5"/>
       <c r="F722" s="5"/>
       <c r="G722" s="5"/>
@@ -10752,7 +10830,7 @@
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
-      <c r="D723" s="5"/>
+      <c r="D723" s="6"/>
       <c r="E723" s="5"/>
       <c r="F723" s="5"/>
       <c r="G723" s="5"/>
@@ -10763,7 +10841,7 @@
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
-      <c r="D724" s="5"/>
+      <c r="D724" s="6"/>
       <c r="E724" s="5"/>
       <c r="F724" s="5"/>
       <c r="G724" s="5"/>
@@ -10774,7 +10852,7 @@
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
-      <c r="D725" s="5"/>
+      <c r="D725" s="6"/>
       <c r="E725" s="5"/>
       <c r="F725" s="5"/>
       <c r="G725" s="5"/>
@@ -10785,7 +10863,7 @@
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
-      <c r="D726" s="5"/>
+      <c r="D726" s="6"/>
       <c r="E726" s="5"/>
       <c r="F726" s="5"/>
       <c r="G726" s="5"/>
@@ -10796,7 +10874,7 @@
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
-      <c r="D727" s="5"/>
+      <c r="D727" s="6"/>
       <c r="E727" s="5"/>
       <c r="F727" s="5"/>
       <c r="G727" s="5"/>
@@ -10807,7 +10885,7 @@
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
-      <c r="D728" s="5"/>
+      <c r="D728" s="6"/>
       <c r="E728" s="5"/>
       <c r="F728" s="5"/>
       <c r="G728" s="5"/>
@@ -10818,7 +10896,7 @@
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
-      <c r="D729" s="5"/>
+      <c r="D729" s="6"/>
       <c r="E729" s="5"/>
       <c r="F729" s="5"/>
       <c r="G729" s="5"/>
@@ -10829,7 +10907,7 @@
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
-      <c r="D730" s="5"/>
+      <c r="D730" s="6"/>
       <c r="E730" s="5"/>
       <c r="F730" s="5"/>
       <c r="G730" s="5"/>
@@ -10840,7 +10918,7 @@
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
-      <c r="D731" s="5"/>
+      <c r="D731" s="6"/>
       <c r="E731" s="5"/>
       <c r="F731" s="5"/>
       <c r="G731" s="5"/>
@@ -10851,7 +10929,7 @@
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
-      <c r="D732" s="5"/>
+      <c r="D732" s="6"/>
       <c r="E732" s="5"/>
       <c r="F732" s="5"/>
       <c r="G732" s="5"/>
@@ -10862,7 +10940,7 @@
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
-      <c r="D733" s="5"/>
+      <c r="D733" s="6"/>
       <c r="E733" s="5"/>
       <c r="F733" s="5"/>
       <c r="G733" s="5"/>
@@ -10873,7 +10951,7 @@
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
-      <c r="D734" s="5"/>
+      <c r="D734" s="6"/>
       <c r="E734" s="5"/>
       <c r="F734" s="5"/>
       <c r="G734" s="5"/>
@@ -10884,7 +10962,7 @@
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
-      <c r="D735" s="5"/>
+      <c r="D735" s="6"/>
       <c r="E735" s="5"/>
       <c r="F735" s="5"/>
       <c r="G735" s="5"/>
@@ -10895,7 +10973,7 @@
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
-      <c r="D736" s="5"/>
+      <c r="D736" s="6"/>
       <c r="E736" s="5"/>
       <c r="F736" s="5"/>
       <c r="G736" s="5"/>
@@ -10906,7 +10984,7 @@
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
-      <c r="D737" s="5"/>
+      <c r="D737" s="6"/>
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
       <c r="G737" s="5"/>
@@ -10917,7 +10995,7 @@
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
-      <c r="D738" s="5"/>
+      <c r="D738" s="6"/>
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
       <c r="G738" s="5"/>
@@ -10928,7 +11006,7 @@
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
-      <c r="D739" s="5"/>
+      <c r="D739" s="6"/>
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
       <c r="G739" s="5"/>
@@ -10939,7 +11017,7 @@
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
-      <c r="D740" s="5"/>
+      <c r="D740" s="6"/>
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
       <c r="G740" s="5"/>
@@ -10950,7 +11028,7 @@
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
-      <c r="D741" s="5"/>
+      <c r="D741" s="6"/>
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
       <c r="G741" s="5"/>
@@ -10961,7 +11039,7 @@
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
-      <c r="D742" s="5"/>
+      <c r="D742" s="6"/>
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
       <c r="G742" s="5"/>
@@ -10972,7 +11050,7 @@
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
-      <c r="D743" s="5"/>
+      <c r="D743" s="6"/>
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
       <c r="G743" s="5"/>
@@ -10983,7 +11061,7 @@
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
-      <c r="D744" s="5"/>
+      <c r="D744" s="6"/>
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
       <c r="G744" s="5"/>
@@ -10994,7 +11072,7 @@
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
-      <c r="D745" s="5"/>
+      <c r="D745" s="6"/>
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
       <c r="G745" s="5"/>
@@ -11005,7 +11083,7 @@
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
-      <c r="D746" s="5"/>
+      <c r="D746" s="6"/>
       <c r="E746" s="5"/>
       <c r="F746" s="5"/>
       <c r="G746" s="5"/>
@@ -11016,7 +11094,7 @@
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
-      <c r="D747" s="5"/>
+      <c r="D747" s="6"/>
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
       <c r="G747" s="5"/>
@@ -11027,7 +11105,7 @@
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
-      <c r="D748" s="5"/>
+      <c r="D748" s="6"/>
       <c r="E748" s="5"/>
       <c r="F748" s="5"/>
       <c r="G748" s="5"/>
@@ -11038,7 +11116,7 @@
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
-      <c r="D749" s="5"/>
+      <c r="D749" s="6"/>
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
       <c r="G749" s="5"/>
@@ -11049,7 +11127,7 @@
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
-      <c r="D750" s="5"/>
+      <c r="D750" s="6"/>
       <c r="E750" s="5"/>
       <c r="F750" s="5"/>
       <c r="G750" s="5"/>
@@ -11060,7 +11138,7 @@
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
-      <c r="D751" s="5"/>
+      <c r="D751" s="6"/>
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
       <c r="G751" s="5"/>
@@ -11071,7 +11149,7 @@
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
-      <c r="D752" s="5"/>
+      <c r="D752" s="6"/>
       <c r="E752" s="5"/>
       <c r="F752" s="5"/>
       <c r="G752" s="5"/>
@@ -11082,7 +11160,7 @@
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
-      <c r="D753" s="5"/>
+      <c r="D753" s="6"/>
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
       <c r="G753" s="5"/>
@@ -11093,7 +11171,7 @@
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
-      <c r="D754" s="5"/>
+      <c r="D754" s="6"/>
       <c r="E754" s="5"/>
       <c r="F754" s="5"/>
       <c r="G754" s="5"/>
@@ -11104,7 +11182,7 @@
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
-      <c r="D755" s="5"/>
+      <c r="D755" s="6"/>
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
       <c r="G755" s="5"/>
@@ -11115,7 +11193,7 @@
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
-      <c r="D756" s="5"/>
+      <c r="D756" s="6"/>
       <c r="E756" s="5"/>
       <c r="F756" s="5"/>
       <c r="G756" s="5"/>
@@ -11126,7 +11204,7 @@
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
-      <c r="D757" s="5"/>
+      <c r="D757" s="6"/>
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
       <c r="G757" s="5"/>
@@ -11137,7 +11215,7 @@
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
-      <c r="D758" s="5"/>
+      <c r="D758" s="6"/>
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
       <c r="G758" s="5"/>
@@ -11148,7 +11226,7 @@
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
-      <c r="D759" s="5"/>
+      <c r="D759" s="6"/>
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
       <c r="G759" s="5"/>
@@ -11159,7 +11237,7 @@
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
-      <c r="D760" s="5"/>
+      <c r="D760" s="6"/>
       <c r="E760" s="5"/>
       <c r="F760" s="5"/>
       <c r="G760" s="5"/>
@@ -11170,7 +11248,7 @@
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
-      <c r="D761" s="5"/>
+      <c r="D761" s="6"/>
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
       <c r="G761" s="5"/>
@@ -11181,7 +11259,7 @@
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
-      <c r="D762" s="5"/>
+      <c r="D762" s="6"/>
       <c r="E762" s="5"/>
       <c r="F762" s="5"/>
       <c r="G762" s="5"/>
@@ -11192,7 +11270,7 @@
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
-      <c r="D763" s="5"/>
+      <c r="D763" s="6"/>
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
       <c r="G763" s="5"/>
@@ -11203,7 +11281,7 @@
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
-      <c r="D764" s="5"/>
+      <c r="D764" s="6"/>
       <c r="E764" s="5"/>
       <c r="F764" s="5"/>
       <c r="G764" s="5"/>
@@ -11214,7 +11292,7 @@
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
-      <c r="D765" s="5"/>
+      <c r="D765" s="6"/>
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
       <c r="G765" s="5"/>
@@ -11225,7 +11303,7 @@
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
-      <c r="D766" s="5"/>
+      <c r="D766" s="6"/>
       <c r="E766" s="5"/>
       <c r="F766" s="5"/>
       <c r="G766" s="5"/>
@@ -11236,7 +11314,7 @@
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
-      <c r="D767" s="5"/>
+      <c r="D767" s="6"/>
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
       <c r="G767" s="5"/>
@@ -11247,7 +11325,7 @@
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
-      <c r="D768" s="5"/>
+      <c r="D768" s="6"/>
       <c r="E768" s="5"/>
       <c r="F768" s="5"/>
       <c r="G768" s="5"/>
@@ -11258,7 +11336,7 @@
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
-      <c r="D769" s="5"/>
+      <c r="D769" s="6"/>
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
       <c r="G769" s="5"/>
@@ -11269,7 +11347,7 @@
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
-      <c r="D770" s="5"/>
+      <c r="D770" s="6"/>
       <c r="E770" s="5"/>
       <c r="F770" s="5"/>
       <c r="G770" s="5"/>
@@ -11280,7 +11358,7 @@
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
-      <c r="D771" s="5"/>
+      <c r="D771" s="6"/>
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
       <c r="G771" s="5"/>
@@ -11291,7 +11369,7 @@
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
-      <c r="D772" s="5"/>
+      <c r="D772" s="6"/>
       <c r="E772" s="5"/>
       <c r="F772" s="5"/>
       <c r="G772" s="5"/>
@@ -11302,7 +11380,7 @@
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
-      <c r="D773" s="5"/>
+      <c r="D773" s="6"/>
       <c r="E773" s="5"/>
       <c r="F773" s="5"/>
       <c r="G773" s="5"/>
@@ -11313,7 +11391,7 @@
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
-      <c r="D774" s="5"/>
+      <c r="D774" s="6"/>
       <c r="E774" s="5"/>
       <c r="F774" s="5"/>
       <c r="G774" s="5"/>
@@ -11324,7 +11402,7 @@
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
-      <c r="D775" s="5"/>
+      <c r="D775" s="6"/>
       <c r="E775" s="5"/>
       <c r="F775" s="5"/>
       <c r="G775" s="5"/>
@@ -11335,7 +11413,7 @@
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
-      <c r="D776" s="5"/>
+      <c r="D776" s="6"/>
       <c r="E776" s="5"/>
       <c r="F776" s="5"/>
       <c r="G776" s="5"/>
@@ -11346,7 +11424,7 @@
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
-      <c r="D777" s="5"/>
+      <c r="D777" s="6"/>
       <c r="E777" s="5"/>
       <c r="F777" s="5"/>
       <c r="G777" s="5"/>
@@ -11357,7 +11435,7 @@
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
-      <c r="D778" s="5"/>
+      <c r="D778" s="6"/>
       <c r="E778" s="5"/>
       <c r="F778" s="5"/>
       <c r="G778" s="5"/>
@@ -11368,7 +11446,7 @@
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
-      <c r="D779" s="5"/>
+      <c r="D779" s="6"/>
       <c r="E779" s="5"/>
       <c r="F779" s="5"/>
       <c r="G779" s="5"/>
@@ -11379,7 +11457,7 @@
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
-      <c r="D780" s="5"/>
+      <c r="D780" s="6"/>
       <c r="E780" s="5"/>
       <c r="F780" s="5"/>
       <c r="G780" s="5"/>
@@ -11390,7 +11468,7 @@
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
-      <c r="D781" s="5"/>
+      <c r="D781" s="6"/>
       <c r="E781" s="5"/>
       <c r="F781" s="5"/>
       <c r="G781" s="5"/>
@@ -11401,7 +11479,7 @@
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
-      <c r="D782" s="5"/>
+      <c r="D782" s="6"/>
       <c r="E782" s="5"/>
       <c r="F782" s="5"/>
       <c r="G782" s="5"/>
@@ -11412,7 +11490,7 @@
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
-      <c r="D783" s="5"/>
+      <c r="D783" s="6"/>
       <c r="E783" s="5"/>
       <c r="F783" s="5"/>
       <c r="G783" s="5"/>
@@ -11423,7 +11501,7 @@
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
-      <c r="D784" s="5"/>
+      <c r="D784" s="6"/>
       <c r="E784" s="5"/>
       <c r="F784" s="5"/>
       <c r="G784" s="5"/>
@@ -11434,7 +11512,7 @@
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
-      <c r="D785" s="5"/>
+      <c r="D785" s="6"/>
       <c r="E785" s="5"/>
       <c r="F785" s="5"/>
       <c r="G785" s="5"/>
@@ -11445,7 +11523,7 @@
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
-      <c r="D786" s="5"/>
+      <c r="D786" s="6"/>
       <c r="E786" s="5"/>
       <c r="F786" s="5"/>
       <c r="G786" s="5"/>
@@ -11456,7 +11534,7 @@
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
-      <c r="D787" s="5"/>
+      <c r="D787" s="6"/>
       <c r="E787" s="5"/>
       <c r="F787" s="5"/>
       <c r="G787" s="5"/>
@@ -11467,7 +11545,7 @@
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
-      <c r="D788" s="5"/>
+      <c r="D788" s="6"/>
       <c r="E788" s="5"/>
       <c r="F788" s="5"/>
       <c r="G788" s="5"/>
@@ -11478,7 +11556,7 @@
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
-      <c r="D789" s="5"/>
+      <c r="D789" s="6"/>
       <c r="E789" s="5"/>
       <c r="F789" s="5"/>
       <c r="G789" s="5"/>
@@ -11489,7 +11567,7 @@
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
-      <c r="D790" s="5"/>
+      <c r="D790" s="6"/>
       <c r="E790" s="5"/>
       <c r="F790" s="5"/>
       <c r="G790" s="5"/>
@@ -11500,7 +11578,7 @@
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
-      <c r="D791" s="5"/>
+      <c r="D791" s="6"/>
       <c r="E791" s="5"/>
       <c r="F791" s="5"/>
       <c r="G791" s="5"/>
@@ -11511,7 +11589,7 @@
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
-      <c r="D792" s="5"/>
+      <c r="D792" s="6"/>
       <c r="E792" s="5"/>
       <c r="F792" s="5"/>
       <c r="G792" s="5"/>
@@ -11522,7 +11600,7 @@
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
-      <c r="D793" s="5"/>
+      <c r="D793" s="6"/>
       <c r="E793" s="5"/>
       <c r="F793" s="5"/>
       <c r="G793" s="5"/>
@@ -11533,7 +11611,7 @@
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
-      <c r="D794" s="5"/>
+      <c r="D794" s="6"/>
       <c r="E794" s="5"/>
       <c r="F794" s="5"/>
       <c r="G794" s="5"/>
@@ -11544,7 +11622,7 @@
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
-      <c r="D795" s="5"/>
+      <c r="D795" s="6"/>
       <c r="E795" s="5"/>
       <c r="F795" s="5"/>
       <c r="G795" s="5"/>
@@ -11555,7 +11633,7 @@
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
-      <c r="D796" s="5"/>
+      <c r="D796" s="6"/>
       <c r="E796" s="5"/>
       <c r="F796" s="5"/>
       <c r="G796" s="5"/>
@@ -11566,7 +11644,7 @@
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
-      <c r="D797" s="5"/>
+      <c r="D797" s="6"/>
       <c r="E797" s="5"/>
       <c r="F797" s="5"/>
       <c r="G797" s="5"/>
@@ -11577,7 +11655,7 @@
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
-      <c r="D798" s="5"/>
+      <c r="D798" s="6"/>
       <c r="E798" s="5"/>
       <c r="F798" s="5"/>
       <c r="G798" s="5"/>
@@ -11588,7 +11666,7 @@
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
-      <c r="D799" s="5"/>
+      <c r="D799" s="6"/>
       <c r="E799" s="5"/>
       <c r="F799" s="5"/>
       <c r="G799" s="5"/>
@@ -11599,7 +11677,7 @@
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
-      <c r="D800" s="5"/>
+      <c r="D800" s="6"/>
       <c r="E800" s="5"/>
       <c r="F800" s="5"/>
       <c r="G800" s="5"/>
@@ -11610,7 +11688,7 @@
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
-      <c r="D801" s="5"/>
+      <c r="D801" s="6"/>
       <c r="E801" s="5"/>
       <c r="F801" s="5"/>
       <c r="G801" s="5"/>
@@ -11621,7 +11699,7 @@
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
-      <c r="D802" s="5"/>
+      <c r="D802" s="6"/>
       <c r="E802" s="5"/>
       <c r="F802" s="5"/>
       <c r="G802" s="5"/>
@@ -11632,7 +11710,7 @@
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
-      <c r="D803" s="5"/>
+      <c r="D803" s="6"/>
       <c r="E803" s="5"/>
       <c r="F803" s="5"/>
       <c r="G803" s="5"/>
@@ -11643,7 +11721,7 @@
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
-      <c r="D804" s="5"/>
+      <c r="D804" s="6"/>
       <c r="E804" s="5"/>
       <c r="F804" s="5"/>
       <c r="G804" s="5"/>
@@ -11654,7 +11732,7 @@
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
-      <c r="D805" s="5"/>
+      <c r="D805" s="6"/>
       <c r="E805" s="5"/>
       <c r="F805" s="5"/>
       <c r="G805" s="5"/>
@@ -11665,7 +11743,7 @@
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
-      <c r="D806" s="5"/>
+      <c r="D806" s="6"/>
       <c r="E806" s="5"/>
       <c r="F806" s="5"/>
       <c r="G806" s="5"/>
@@ -11676,7 +11754,7 @@
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
-      <c r="D807" s="5"/>
+      <c r="D807" s="6"/>
       <c r="E807" s="5"/>
       <c r="F807" s="5"/>
       <c r="G807" s="5"/>
@@ -11687,7 +11765,7 @@
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
-      <c r="D808" s="5"/>
+      <c r="D808" s="6"/>
       <c r="E808" s="5"/>
       <c r="F808" s="5"/>
       <c r="G808" s="5"/>
@@ -11698,7 +11776,7 @@
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
-      <c r="D809" s="5"/>
+      <c r="D809" s="6"/>
       <c r="E809" s="5"/>
       <c r="F809" s="5"/>
       <c r="G809" s="5"/>
@@ -11709,7 +11787,7 @@
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
-      <c r="D810" s="5"/>
+      <c r="D810" s="6"/>
       <c r="E810" s="5"/>
       <c r="F810" s="5"/>
       <c r="G810" s="5"/>
@@ -11720,7 +11798,7 @@
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
-      <c r="D811" s="5"/>
+      <c r="D811" s="6"/>
       <c r="E811" s="5"/>
       <c r="F811" s="5"/>
       <c r="G811" s="5"/>
@@ -11731,7 +11809,7 @@
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
-      <c r="D812" s="5"/>
+      <c r="D812" s="6"/>
       <c r="E812" s="5"/>
       <c r="F812" s="5"/>
       <c r="G812" s="5"/>
@@ -11742,7 +11820,7 @@
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
-      <c r="D813" s="5"/>
+      <c r="D813" s="6"/>
       <c r="E813" s="5"/>
       <c r="F813" s="5"/>
       <c r="G813" s="5"/>
@@ -11753,7 +11831,7 @@
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
-      <c r="D814" s="5"/>
+      <c r="D814" s="6"/>
       <c r="E814" s="5"/>
       <c r="F814" s="5"/>
       <c r="G814" s="5"/>
@@ -11764,7 +11842,7 @@
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
-      <c r="D815" s="5"/>
+      <c r="D815" s="6"/>
       <c r="E815" s="5"/>
       <c r="F815" s="5"/>
       <c r="G815" s="5"/>
@@ -11775,7 +11853,7 @@
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
-      <c r="D816" s="5"/>
+      <c r="D816" s="6"/>
       <c r="E816" s="5"/>
       <c r="F816" s="5"/>
       <c r="G816" s="5"/>
@@ -11786,7 +11864,7 @@
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
-      <c r="D817" s="5"/>
+      <c r="D817" s="6"/>
       <c r="E817" s="5"/>
       <c r="F817" s="5"/>
       <c r="G817" s="5"/>
@@ -11797,7 +11875,7 @@
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
-      <c r="D818" s="5"/>
+      <c r="D818" s="6"/>
       <c r="E818" s="5"/>
       <c r="F818" s="5"/>
       <c r="G818" s="5"/>
@@ -11808,7 +11886,7 @@
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
-      <c r="D819" s="5"/>
+      <c r="D819" s="6"/>
       <c r="E819" s="5"/>
       <c r="F819" s="5"/>
       <c r="G819" s="5"/>
@@ -11819,7 +11897,7 @@
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
-      <c r="D820" s="5"/>
+      <c r="D820" s="6"/>
       <c r="E820" s="5"/>
       <c r="F820" s="5"/>
       <c r="G820" s="5"/>
@@ -11830,7 +11908,7 @@
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
-      <c r="D821" s="5"/>
+      <c r="D821" s="6"/>
       <c r="E821" s="5"/>
       <c r="F821" s="5"/>
       <c r="G821" s="5"/>
@@ -11841,7 +11919,7 @@
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
-      <c r="D822" s="5"/>
+      <c r="D822" s="6"/>
       <c r="E822" s="5"/>
       <c r="F822" s="5"/>
       <c r="G822" s="5"/>
@@ -11852,7 +11930,7 @@
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
-      <c r="D823" s="5"/>
+      <c r="D823" s="6"/>
       <c r="E823" s="5"/>
       <c r="F823" s="5"/>
       <c r="G823" s="5"/>
@@ -11863,7 +11941,7 @@
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
-      <c r="D824" s="5"/>
+      <c r="D824" s="6"/>
       <c r="E824" s="5"/>
       <c r="F824" s="5"/>
       <c r="G824" s="5"/>
@@ -11874,7 +11952,7 @@
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
-      <c r="D825" s="5"/>
+      <c r="D825" s="6"/>
       <c r="E825" s="5"/>
       <c r="F825" s="5"/>
       <c r="G825" s="5"/>
@@ -11885,7 +11963,7 @@
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
-      <c r="D826" s="5"/>
+      <c r="D826" s="6"/>
       <c r="E826" s="5"/>
       <c r="F826" s="5"/>
       <c r="G826" s="5"/>
@@ -11896,7 +11974,7 @@
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
-      <c r="D827" s="5"/>
+      <c r="D827" s="6"/>
       <c r="E827" s="5"/>
       <c r="F827" s="5"/>
       <c r="G827" s="5"/>
@@ -11907,7 +11985,7 @@
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
-      <c r="D828" s="5"/>
+      <c r="D828" s="6"/>
       <c r="E828" s="5"/>
       <c r="F828" s="5"/>
       <c r="G828" s="5"/>
@@ -11918,7 +11996,7 @@
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
-      <c r="D829" s="5"/>
+      <c r="D829" s="6"/>
       <c r="E829" s="5"/>
       <c r="F829" s="5"/>
       <c r="G829" s="5"/>
@@ -11929,7 +12007,7 @@
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
-      <c r="D830" s="5"/>
+      <c r="D830" s="6"/>
       <c r="E830" s="5"/>
       <c r="F830" s="5"/>
       <c r="G830" s="5"/>
@@ -11940,7 +12018,7 @@
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
-      <c r="D831" s="5"/>
+      <c r="D831" s="6"/>
       <c r="E831" s="5"/>
       <c r="F831" s="5"/>
       <c r="G831" s="5"/>
@@ -11951,7 +12029,7 @@
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
-      <c r="D832" s="5"/>
+      <c r="D832" s="6"/>
       <c r="E832" s="5"/>
       <c r="F832" s="5"/>
       <c r="G832" s="5"/>
@@ -11962,7 +12040,7 @@
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
-      <c r="D833" s="5"/>
+      <c r="D833" s="6"/>
       <c r="E833" s="5"/>
       <c r="F833" s="5"/>
       <c r="G833" s="5"/>
@@ -11973,7 +12051,7 @@
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
-      <c r="D834" s="5"/>
+      <c r="D834" s="6"/>
       <c r="E834" s="5"/>
       <c r="F834" s="5"/>
       <c r="G834" s="5"/>
@@ -11984,7 +12062,7 @@
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
-      <c r="D835" s="5"/>
+      <c r="D835" s="6"/>
       <c r="E835" s="5"/>
       <c r="F835" s="5"/>
       <c r="G835" s="5"/>
@@ -11995,7 +12073,7 @@
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
-      <c r="D836" s="5"/>
+      <c r="D836" s="6"/>
       <c r="E836" s="5"/>
       <c r="F836" s="5"/>
       <c r="G836" s="5"/>
@@ -12006,7 +12084,7 @@
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
-      <c r="D837" s="5"/>
+      <c r="D837" s="6"/>
       <c r="E837" s="5"/>
       <c r="F837" s="5"/>
       <c r="G837" s="5"/>
@@ -12017,7 +12095,7 @@
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
-      <c r="D838" s="5"/>
+      <c r="D838" s="6"/>
       <c r="E838" s="5"/>
       <c r="F838" s="5"/>
       <c r="G838" s="5"/>
@@ -12028,7 +12106,7 @@
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
-      <c r="D839" s="5"/>
+      <c r="D839" s="6"/>
       <c r="E839" s="5"/>
       <c r="F839" s="5"/>
       <c r="G839" s="5"/>
@@ -12039,7 +12117,7 @@
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
-      <c r="D840" s="5"/>
+      <c r="D840" s="6"/>
       <c r="E840" s="5"/>
       <c r="F840" s="5"/>
       <c r="G840" s="5"/>
@@ -12050,7 +12128,7 @@
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
-      <c r="D841" s="5"/>
+      <c r="D841" s="6"/>
       <c r="E841" s="5"/>
       <c r="F841" s="5"/>
       <c r="G841" s="5"/>
@@ -12061,7 +12139,7 @@
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
-      <c r="D842" s="5"/>
+      <c r="D842" s="6"/>
       <c r="E842" s="5"/>
       <c r="F842" s="5"/>
       <c r="G842" s="5"/>
@@ -12072,7 +12150,7 @@
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
-      <c r="D843" s="5"/>
+      <c r="D843" s="6"/>
       <c r="E843" s="5"/>
       <c r="F843" s="5"/>
       <c r="G843" s="5"/>
@@ -12083,7 +12161,7 @@
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
-      <c r="D844" s="5"/>
+      <c r="D844" s="6"/>
       <c r="E844" s="5"/>
       <c r="F844" s="5"/>
       <c r="G844" s="5"/>
@@ -12094,7 +12172,7 @@
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
-      <c r="D845" s="5"/>
+      <c r="D845" s="6"/>
       <c r="E845" s="5"/>
       <c r="F845" s="5"/>
       <c r="G845" s="5"/>
@@ -12105,7 +12183,7 @@
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
-      <c r="D846" s="5"/>
+      <c r="D846" s="6"/>
       <c r="E846" s="5"/>
       <c r="F846" s="5"/>
       <c r="G846" s="5"/>
@@ -12116,7 +12194,7 @@
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
-      <c r="D847" s="5"/>
+      <c r="D847" s="6"/>
       <c r="E847" s="5"/>
       <c r="F847" s="5"/>
       <c r="G847" s="5"/>
@@ -12127,7 +12205,7 @@
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
-      <c r="D848" s="5"/>
+      <c r="D848" s="6"/>
       <c r="E848" s="5"/>
       <c r="F848" s="5"/>
       <c r="G848" s="5"/>
@@ -12138,7 +12216,7 @@
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
-      <c r="D849" s="5"/>
+      <c r="D849" s="6"/>
       <c r="E849" s="5"/>
       <c r="F849" s="5"/>
       <c r="G849" s="5"/>
@@ -12149,7 +12227,7 @@
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
-      <c r="D850" s="5"/>
+      <c r="D850" s="6"/>
       <c r="E850" s="5"/>
       <c r="F850" s="5"/>
       <c r="G850" s="5"/>
@@ -12160,7 +12238,7 @@
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
-      <c r="D851" s="5"/>
+      <c r="D851" s="6"/>
       <c r="E851" s="5"/>
       <c r="F851" s="5"/>
       <c r="G851" s="5"/>
@@ -12171,7 +12249,7 @@
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
-      <c r="D852" s="5"/>
+      <c r="D852" s="6"/>
       <c r="E852" s="5"/>
       <c r="F852" s="5"/>
       <c r="G852" s="5"/>
@@ -12182,7 +12260,7 @@
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
-      <c r="D853" s="5"/>
+      <c r="D853" s="6"/>
       <c r="E853" s="5"/>
       <c r="F853" s="5"/>
       <c r="G853" s="5"/>
@@ -12193,7 +12271,7 @@
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
-      <c r="D854" s="5"/>
+      <c r="D854" s="6"/>
       <c r="E854" s="5"/>
       <c r="F854" s="5"/>
       <c r="G854" s="5"/>
@@ -12204,7 +12282,7 @@
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
-      <c r="D855" s="5"/>
+      <c r="D855" s="6"/>
       <c r="E855" s="5"/>
       <c r="F855" s="5"/>
       <c r="G855" s="5"/>
@@ -12215,7 +12293,7 @@
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
-      <c r="D856" s="5"/>
+      <c r="D856" s="6"/>
       <c r="E856" s="5"/>
       <c r="F856" s="5"/>
       <c r="G856" s="5"/>
@@ -12226,7 +12304,7 @@
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
-      <c r="D857" s="5"/>
+      <c r="D857" s="6"/>
       <c r="E857" s="5"/>
       <c r="F857" s="5"/>
       <c r="G857" s="5"/>
@@ -12237,7 +12315,7 @@
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
-      <c r="D858" s="5"/>
+      <c r="D858" s="6"/>
       <c r="E858" s="5"/>
       <c r="F858" s="5"/>
       <c r="G858" s="5"/>
@@ -12248,7 +12326,7 @@
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
-      <c r="D859" s="5"/>
+      <c r="D859" s="6"/>
       <c r="E859" s="5"/>
       <c r="F859" s="5"/>
       <c r="G859" s="5"/>
@@ -12259,7 +12337,7 @@
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
-      <c r="D860" s="5"/>
+      <c r="D860" s="6"/>
       <c r="E860" s="5"/>
       <c r="F860" s="5"/>
       <c r="G860" s="5"/>
@@ -12270,7 +12348,7 @@
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
-      <c r="D861" s="5"/>
+      <c r="D861" s="6"/>
       <c r="E861" s="5"/>
       <c r="F861" s="5"/>
       <c r="G861" s="5"/>
@@ -12281,7 +12359,7 @@
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
-      <c r="D862" s="5"/>
+      <c r="D862" s="6"/>
       <c r="E862" s="5"/>
       <c r="F862" s="5"/>
       <c r="G862" s="5"/>
@@ -12292,7 +12370,7 @@
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
-      <c r="D863" s="5"/>
+      <c r="D863" s="6"/>
       <c r="E863" s="5"/>
       <c r="F863" s="5"/>
       <c r="G863" s="5"/>
@@ -12303,7 +12381,7 @@
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
-      <c r="D864" s="5"/>
+      <c r="D864" s="6"/>
       <c r="E864" s="5"/>
       <c r="F864" s="5"/>
       <c r="G864" s="5"/>
@@ -12314,7 +12392,7 @@
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
-      <c r="D865" s="5"/>
+      <c r="D865" s="6"/>
       <c r="E865" s="5"/>
       <c r="F865" s="5"/>
       <c r="G865" s="5"/>
@@ -12325,7 +12403,7 @@
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
-      <c r="D866" s="5"/>
+      <c r="D866" s="6"/>
       <c r="E866" s="5"/>
       <c r="F866" s="5"/>
       <c r="G866" s="5"/>
@@ -12336,7 +12414,7 @@
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
-      <c r="D867" s="5"/>
+      <c r="D867" s="6"/>
       <c r="E867" s="5"/>
       <c r="F867" s="5"/>
       <c r="G867" s="5"/>
@@ -12347,7 +12425,7 @@
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
-      <c r="D868" s="5"/>
+      <c r="D868" s="6"/>
       <c r="E868" s="5"/>
       <c r="F868" s="5"/>
       <c r="G868" s="5"/>
@@ -12358,7 +12436,7 @@
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
-      <c r="D869" s="5"/>
+      <c r="D869" s="6"/>
       <c r="E869" s="5"/>
       <c r="F869" s="5"/>
       <c r="G869" s="5"/>
@@ -12369,7 +12447,7 @@
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
-      <c r="D870" s="5"/>
+      <c r="D870" s="6"/>
       <c r="E870" s="5"/>
       <c r="F870" s="5"/>
       <c r="G870" s="5"/>
@@ -12380,7 +12458,7 @@
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
-      <c r="D871" s="5"/>
+      <c r="D871" s="6"/>
       <c r="E871" s="5"/>
       <c r="F871" s="5"/>
       <c r="G871" s="5"/>
@@ -12391,7 +12469,7 @@
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
-      <c r="D872" s="5"/>
+      <c r="D872" s="6"/>
       <c r="E872" s="5"/>
       <c r="F872" s="5"/>
       <c r="G872" s="5"/>
@@ -12402,7 +12480,7 @@
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
-      <c r="D873" s="5"/>
+      <c r="D873" s="6"/>
       <c r="E873" s="5"/>
       <c r="F873" s="5"/>
       <c r="G873" s="5"/>
@@ -12413,7 +12491,7 @@
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
-      <c r="D874" s="5"/>
+      <c r="D874" s="6"/>
       <c r="E874" s="5"/>
       <c r="F874" s="5"/>
       <c r="G874" s="5"/>
@@ -12424,7 +12502,7 @@
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
-      <c r="D875" s="5"/>
+      <c r="D875" s="6"/>
       <c r="E875" s="5"/>
       <c r="F875" s="5"/>
       <c r="G875" s="5"/>
@@ -12435,7 +12513,7 @@
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
-      <c r="D876" s="5"/>
+      <c r="D876" s="6"/>
       <c r="E876" s="5"/>
       <c r="F876" s="5"/>
       <c r="G876" s="5"/>
@@ -12446,7 +12524,7 @@
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
-      <c r="D877" s="5"/>
+      <c r="D877" s="6"/>
       <c r="E877" s="5"/>
       <c r="F877" s="5"/>
       <c r="G877" s="5"/>
@@ -12457,7 +12535,7 @@
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
-      <c r="D878" s="5"/>
+      <c r="D878" s="6"/>
       <c r="E878" s="5"/>
       <c r="F878" s="5"/>
       <c r="G878" s="5"/>
@@ -12468,7 +12546,7 @@
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
-      <c r="D879" s="5"/>
+      <c r="D879" s="6"/>
       <c r="E879" s="5"/>
       <c r="F879" s="5"/>
       <c r="G879" s="5"/>
@@ -12479,7 +12557,7 @@
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
-      <c r="D880" s="5"/>
+      <c r="D880" s="6"/>
       <c r="E880" s="5"/>
       <c r="F880" s="5"/>
       <c r="G880" s="5"/>
@@ -12490,7 +12568,7 @@
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
-      <c r="D881" s="5"/>
+      <c r="D881" s="6"/>
       <c r="E881" s="5"/>
       <c r="F881" s="5"/>
       <c r="G881" s="5"/>
@@ -12501,7 +12579,7 @@
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
-      <c r="D882" s="5"/>
+      <c r="D882" s="6"/>
       <c r="E882" s="5"/>
       <c r="F882" s="5"/>
       <c r="G882" s="5"/>
@@ -12512,7 +12590,7 @@
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
-      <c r="D883" s="5"/>
+      <c r="D883" s="6"/>
       <c r="E883" s="5"/>
       <c r="F883" s="5"/>
       <c r="G883" s="5"/>
@@ -12523,7 +12601,7 @@
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
-      <c r="D884" s="5"/>
+      <c r="D884" s="6"/>
       <c r="E884" s="5"/>
       <c r="F884" s="5"/>
       <c r="G884" s="5"/>
@@ -12534,7 +12612,7 @@
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
-      <c r="D885" s="5"/>
+      <c r="D885" s="6"/>
       <c r="E885" s="5"/>
       <c r="F885" s="5"/>
       <c r="G885" s="5"/>
@@ -12545,7 +12623,7 @@
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
-      <c r="D886" s="5"/>
+      <c r="D886" s="6"/>
       <c r="E886" s="5"/>
       <c r="F886" s="5"/>
       <c r="G886" s="5"/>
@@ -12556,7 +12634,7 @@
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
-      <c r="D887" s="5"/>
+      <c r="D887" s="6"/>
       <c r="E887" s="5"/>
       <c r="F887" s="5"/>
       <c r="G887" s="5"/>
@@ -12567,7 +12645,7 @@
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
-      <c r="D888" s="5"/>
+      <c r="D888" s="6"/>
       <c r="E888" s="5"/>
       <c r="F888" s="5"/>
       <c r="G888" s="5"/>
@@ -12578,7 +12656,7 @@
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
-      <c r="D889" s="5"/>
+      <c r="D889" s="6"/>
       <c r="E889" s="5"/>
       <c r="F889" s="5"/>
       <c r="G889" s="5"/>
@@ -12589,7 +12667,7 @@
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
-      <c r="D890" s="5"/>
+      <c r="D890" s="6"/>
       <c r="E890" s="5"/>
       <c r="F890" s="5"/>
       <c r="G890" s="5"/>
@@ -12600,7 +12678,7 @@
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
-      <c r="D891" s="5"/>
+      <c r="D891" s="6"/>
       <c r="E891" s="5"/>
       <c r="F891" s="5"/>
       <c r="G891" s="5"/>
@@ -12611,7 +12689,7 @@
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
-      <c r="D892" s="5"/>
+      <c r="D892" s="6"/>
       <c r="E892" s="5"/>
       <c r="F892" s="5"/>
       <c r="G892" s="5"/>
@@ -12622,7 +12700,7 @@
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
-      <c r="D893" s="5"/>
+      <c r="D893" s="6"/>
       <c r="E893" s="5"/>
       <c r="F893" s="5"/>
       <c r="G893" s="5"/>
@@ -12633,7 +12711,7 @@
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
-      <c r="D894" s="5"/>
+      <c r="D894" s="6"/>
       <c r="E894" s="5"/>
       <c r="F894" s="5"/>
       <c r="G894" s="5"/>
@@ -12644,7 +12722,7 @@
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
-      <c r="D895" s="5"/>
+      <c r="D895" s="6"/>
       <c r="E895" s="5"/>
       <c r="F895" s="5"/>
       <c r="G895" s="5"/>
@@ -12655,7 +12733,7 @@
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
-      <c r="D896" s="5"/>
+      <c r="D896" s="6"/>
       <c r="E896" s="5"/>
       <c r="F896" s="5"/>
       <c r="G896" s="5"/>
@@ -12666,7 +12744,7 @@
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
-      <c r="D897" s="5"/>
+      <c r="D897" s="6"/>
       <c r="E897" s="5"/>
       <c r="F897" s="5"/>
       <c r="G897" s="5"/>
@@ -12677,7 +12755,7 @@
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
-      <c r="D898" s="5"/>
+      <c r="D898" s="6"/>
       <c r="E898" s="5"/>
       <c r="F898" s="5"/>
       <c r="G898" s="5"/>
@@ -12688,7 +12766,7 @@
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
-      <c r="D899" s="5"/>
+      <c r="D899" s="6"/>
       <c r="E899" s="5"/>
       <c r="F899" s="5"/>
       <c r="G899" s="5"/>
@@ -12699,7 +12777,7 @@
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
-      <c r="D900" s="5"/>
+      <c r="D900" s="6"/>
       <c r="E900" s="5"/>
       <c r="F900" s="5"/>
       <c r="G900" s="5"/>
@@ -12710,7 +12788,7 @@
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
-      <c r="D901" s="5"/>
+      <c r="D901" s="6"/>
       <c r="E901" s="5"/>
       <c r="F901" s="5"/>
       <c r="G901" s="5"/>
@@ -12721,7 +12799,7 @@
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
-      <c r="D902" s="5"/>
+      <c r="D902" s="6"/>
       <c r="E902" s="5"/>
       <c r="F902" s="5"/>
       <c r="G902" s="5"/>
@@ -12732,7 +12810,7 @@
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
-      <c r="D903" s="5"/>
+      <c r="D903" s="6"/>
       <c r="E903" s="5"/>
       <c r="F903" s="5"/>
       <c r="G903" s="5"/>
@@ -12743,7 +12821,7 @@
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
-      <c r="D904" s="5"/>
+      <c r="D904" s="6"/>
       <c r="E904" s="5"/>
       <c r="F904" s="5"/>
       <c r="G904" s="5"/>
@@ -12754,7 +12832,7 @@
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
-      <c r="D905" s="5"/>
+      <c r="D905" s="6"/>
       <c r="E905" s="5"/>
       <c r="F905" s="5"/>
       <c r="G905" s="5"/>
@@ -12765,7 +12843,7 @@
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
-      <c r="D906" s="5"/>
+      <c r="D906" s="6"/>
       <c r="E906" s="5"/>
       <c r="F906" s="5"/>
       <c r="G906" s="5"/>
@@ -12776,7 +12854,7 @@
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
-      <c r="D907" s="5"/>
+      <c r="D907" s="6"/>
       <c r="E907" s="5"/>
       <c r="F907" s="5"/>
       <c r="G907" s="5"/>
@@ -12787,7 +12865,7 @@
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
-      <c r="D908" s="5"/>
+      <c r="D908" s="6"/>
       <c r="E908" s="5"/>
       <c r="F908" s="5"/>
       <c r="G908" s="5"/>
@@ -12798,7 +12876,7 @@
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
-      <c r="D909" s="5"/>
+      <c r="D909" s="6"/>
       <c r="E909" s="5"/>
       <c r="F909" s="5"/>
       <c r="G909" s="5"/>
@@ -12809,7 +12887,7 @@
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
-      <c r="D910" s="5"/>
+      <c r="D910" s="6"/>
       <c r="E910" s="5"/>
       <c r="F910" s="5"/>
       <c r="G910" s="5"/>
@@ -12820,7 +12898,7 @@
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
-      <c r="D911" s="5"/>
+      <c r="D911" s="6"/>
       <c r="E911" s="5"/>
       <c r="F911" s="5"/>
       <c r="G911" s="5"/>
@@ -12831,7 +12909,7 @@
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
-      <c r="D912" s="5"/>
+      <c r="D912" s="6"/>
       <c r="E912" s="5"/>
       <c r="F912" s="5"/>
       <c r="G912" s="5"/>
@@ -12842,7 +12920,7 @@
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
-      <c r="D913" s="5"/>
+      <c r="D913" s="6"/>
       <c r="E913" s="5"/>
       <c r="F913" s="5"/>
       <c r="G913" s="5"/>
@@ -12853,7 +12931,7 @@
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
-      <c r="D914" s="5"/>
+      <c r="D914" s="6"/>
       <c r="E914" s="5"/>
       <c r="F914" s="5"/>
       <c r="G914" s="5"/>
@@ -12864,7 +12942,7 @@
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
-      <c r="D915" s="5"/>
+      <c r="D915" s="6"/>
       <c r="E915" s="5"/>
       <c r="F915" s="5"/>
       <c r="G915" s="5"/>
@@ -12875,7 +12953,7 @@
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
-      <c r="D916" s="5"/>
+      <c r="D916" s="6"/>
       <c r="E916" s="5"/>
       <c r="F916" s="5"/>
       <c r="G916" s="5"/>
@@ -12886,7 +12964,7 @@
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
-      <c r="D917" s="5"/>
+      <c r="D917" s="6"/>
       <c r="E917" s="5"/>
       <c r="F917" s="5"/>
       <c r="G917" s="5"/>
@@ -12897,7 +12975,7 @@
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
-      <c r="D918" s="5"/>
+      <c r="D918" s="6"/>
       <c r="E918" s="5"/>
       <c r="F918" s="5"/>
       <c r="G918" s="5"/>
@@ -12908,7 +12986,7 @@
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
-      <c r="D919" s="5"/>
+      <c r="D919" s="6"/>
       <c r="E919" s="5"/>
       <c r="F919" s="5"/>
       <c r="G919" s="5"/>
@@ -12919,7 +12997,7 @@
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
-      <c r="D920" s="5"/>
+      <c r="D920" s="6"/>
       <c r="E920" s="5"/>
       <c r="F920" s="5"/>
       <c r="G920" s="5"/>
@@ -12930,7 +13008,7 @@
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
-      <c r="D921" s="5"/>
+      <c r="D921" s="6"/>
       <c r="E921" s="5"/>
       <c r="F921" s="5"/>
       <c r="G921" s="5"/>
@@ -12941,7 +13019,7 @@
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
-      <c r="D922" s="5"/>
+      <c r="D922" s="6"/>
       <c r="E922" s="5"/>
       <c r="F922" s="5"/>
       <c r="G922" s="5"/>
@@ -12952,7 +13030,7 @@
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
-      <c r="D923" s="5"/>
+      <c r="D923" s="6"/>
       <c r="E923" s="5"/>
       <c r="F923" s="5"/>
       <c r="G923" s="5"/>
@@ -12963,7 +13041,7 @@
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
-      <c r="D924" s="5"/>
+      <c r="D924" s="6"/>
       <c r="E924" s="5"/>
       <c r="F924" s="5"/>
       <c r="G924" s="5"/>
@@ -12974,7 +13052,7 @@
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
-      <c r="D925" s="5"/>
+      <c r="D925" s="6"/>
       <c r="E925" s="5"/>
       <c r="F925" s="5"/>
       <c r="G925" s="5"/>
@@ -12985,7 +13063,7 @@
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
-      <c r="D926" s="5"/>
+      <c r="D926" s="6"/>
       <c r="E926" s="5"/>
       <c r="F926" s="5"/>
       <c r="G926" s="5"/>
@@ -12996,7 +13074,7 @@
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
-      <c r="D927" s="5"/>
+      <c r="D927" s="6"/>
       <c r="E927" s="5"/>
       <c r="F927" s="5"/>
       <c r="G927" s="5"/>
@@ -13007,7 +13085,7 @@
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
-      <c r="D928" s="5"/>
+      <c r="D928" s="6"/>
       <c r="E928" s="5"/>
       <c r="F928" s="5"/>
       <c r="G928" s="5"/>
@@ -13018,7 +13096,7 @@
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
-      <c r="D929" s="5"/>
+      <c r="D929" s="6"/>
       <c r="E929" s="5"/>
       <c r="F929" s="5"/>
       <c r="G929" s="5"/>
@@ -13029,7 +13107,7 @@
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
-      <c r="D930" s="5"/>
+      <c r="D930" s="6"/>
       <c r="E930" s="5"/>
       <c r="F930" s="5"/>
       <c r="G930" s="5"/>
@@ -13040,7 +13118,7 @@
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
-      <c r="D931" s="5"/>
+      <c r="D931" s="6"/>
       <c r="E931" s="5"/>
       <c r="F931" s="5"/>
       <c r="G931" s="5"/>
@@ -13051,7 +13129,7 @@
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
-      <c r="D932" s="5"/>
+      <c r="D932" s="6"/>
       <c r="E932" s="5"/>
       <c r="F932" s="5"/>
       <c r="G932" s="5"/>
@@ -13062,7 +13140,7 @@
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
-      <c r="D933" s="5"/>
+      <c r="D933" s="6"/>
       <c r="E933" s="5"/>
       <c r="F933" s="5"/>
       <c r="G933" s="5"/>
@@ -13073,7 +13151,7 @@
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
-      <c r="D934" s="5"/>
+      <c r="D934" s="6"/>
       <c r="E934" s="5"/>
       <c r="F934" s="5"/>
       <c r="G934" s="5"/>
@@ -13084,7 +13162,7 @@
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
-      <c r="D935" s="5"/>
+      <c r="D935" s="6"/>
       <c r="E935" s="5"/>
       <c r="F935" s="5"/>
       <c r="G935" s="5"/>
@@ -13095,7 +13173,7 @@
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
-      <c r="D936" s="5"/>
+      <c r="D936" s="6"/>
       <c r="E936" s="5"/>
       <c r="F936" s="5"/>
       <c r="G936" s="5"/>
@@ -13106,7 +13184,7 @@
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
-      <c r="D937" s="5"/>
+      <c r="D937" s="6"/>
       <c r="E937" s="5"/>
       <c r="F937" s="5"/>
       <c r="G937" s="5"/>
@@ -13117,7 +13195,7 @@
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
-      <c r="D938" s="5"/>
+      <c r="D938" s="6"/>
       <c r="E938" s="5"/>
       <c r="F938" s="5"/>
       <c r="G938" s="5"/>
@@ -13128,7 +13206,7 @@
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
-      <c r="D939" s="5"/>
+      <c r="D939" s="6"/>
       <c r="E939" s="5"/>
       <c r="F939" s="5"/>
       <c r="G939" s="5"/>
@@ -13139,7 +13217,7 @@
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
-      <c r="D940" s="5"/>
+      <c r="D940" s="6"/>
       <c r="E940" s="5"/>
       <c r="F940" s="5"/>
       <c r="G940" s="5"/>
@@ -13150,7 +13228,7 @@
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
-      <c r="D941" s="5"/>
+      <c r="D941" s="6"/>
       <c r="E941" s="5"/>
       <c r="F941" s="5"/>
       <c r="G941" s="5"/>
@@ -13161,7 +13239,7 @@
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
-      <c r="D942" s="5"/>
+      <c r="D942" s="6"/>
       <c r="E942" s="5"/>
       <c r="F942" s="5"/>
       <c r="G942" s="5"/>
@@ -13172,7 +13250,7 @@
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
-      <c r="D943" s="5"/>
+      <c r="D943" s="6"/>
       <c r="E943" s="5"/>
       <c r="F943" s="5"/>
       <c r="G943" s="5"/>
@@ -13183,7 +13261,7 @@
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
-      <c r="D944" s="5"/>
+      <c r="D944" s="6"/>
       <c r="E944" s="5"/>
       <c r="F944" s="5"/>
       <c r="G944" s="5"/>
@@ -13194,7 +13272,7 @@
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
-      <c r="D945" s="5"/>
+      <c r="D945" s="6"/>
       <c r="E945" s="5"/>
       <c r="F945" s="5"/>
       <c r="G945" s="5"/>
@@ -13205,7 +13283,7 @@
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
-      <c r="D946" s="5"/>
+      <c r="D946" s="6"/>
       <c r="E946" s="5"/>
       <c r="F946" s="5"/>
       <c r="G946" s="5"/>
@@ -13216,7 +13294,7 @@
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
-      <c r="D947" s="5"/>
+      <c r="D947" s="6"/>
       <c r="E947" s="5"/>
       <c r="F947" s="5"/>
       <c r="G947" s="5"/>
@@ -13227,7 +13305,7 @@
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
-      <c r="D948" s="5"/>
+      <c r="D948" s="6"/>
       <c r="E948" s="5"/>
       <c r="F948" s="5"/>
       <c r="G948" s="5"/>
@@ -13238,7 +13316,7 @@
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
-      <c r="D949" s="5"/>
+      <c r="D949" s="6"/>
       <c r="E949" s="5"/>
       <c r="F949" s="5"/>
       <c r="G949" s="5"/>
@@ -13249,7 +13327,7 @@
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
-      <c r="D950" s="5"/>
+      <c r="D950" s="6"/>
       <c r="E950" s="5"/>
       <c r="F950" s="5"/>
       <c r="G950" s="5"/>
@@ -13260,7 +13338,7 @@
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
-      <c r="D951" s="5"/>
+      <c r="D951" s="6"/>
       <c r="E951" s="5"/>
       <c r="F951" s="5"/>
       <c r="G951" s="5"/>
@@ -13271,7 +13349,7 @@
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
-      <c r="D952" s="5"/>
+      <c r="D952" s="6"/>
       <c r="E952" s="5"/>
       <c r="F952" s="5"/>
       <c r="G952" s="5"/>
@@ -13282,7 +13360,7 @@
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
-      <c r="D953" s="5"/>
+      <c r="D953" s="6"/>
       <c r="E953" s="5"/>
       <c r="F953" s="5"/>
       <c r="G953" s="5"/>
@@ -13293,7 +13371,7 @@
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
-      <c r="D954" s="5"/>
+      <c r="D954" s="6"/>
       <c r="E954" s="5"/>
       <c r="F954" s="5"/>
       <c r="G954" s="5"/>
@@ -13304,7 +13382,7 @@
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
-      <c r="D955" s="5"/>
+      <c r="D955" s="6"/>
       <c r="E955" s="5"/>
       <c r="F955" s="5"/>
       <c r="G955" s="5"/>
@@ -13315,7 +13393,7 @@
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
-      <c r="D956" s="5"/>
+      <c r="D956" s="6"/>
       <c r="E956" s="5"/>
       <c r="F956" s="5"/>
       <c r="G956" s="5"/>
@@ -13326,7 +13404,7 @@
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
-      <c r="D957" s="5"/>
+      <c r="D957" s="6"/>
       <c r="E957" s="5"/>
       <c r="F957" s="5"/>
       <c r="G957" s="5"/>
@@ -13337,7 +13415,7 @@
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
-      <c r="D958" s="5"/>
+      <c r="D958" s="6"/>
       <c r="E958" s="5"/>
       <c r="F958" s="5"/>
       <c r="G958" s="5"/>
@@ -13348,7 +13426,7 @@
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
-      <c r="D959" s="5"/>
+      <c r="D959" s="6"/>
       <c r="E959" s="5"/>
       <c r="F959" s="5"/>
       <c r="G959" s="5"/>
@@ -13359,7 +13437,7 @@
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
-      <c r="D960" s="5"/>
+      <c r="D960" s="6"/>
       <c r="E960" s="5"/>
       <c r="F960" s="5"/>
       <c r="G960" s="5"/>
@@ -13370,7 +13448,7 @@
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
-      <c r="D961" s="5"/>
+      <c r="D961" s="6"/>
       <c r="E961" s="5"/>
       <c r="F961" s="5"/>
       <c r="G961" s="5"/>
@@ -13381,7 +13459,7 @@
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
-      <c r="D962" s="5"/>
+      <c r="D962" s="6"/>
       <c r="E962" s="5"/>
       <c r="F962" s="5"/>
       <c r="G962" s="5"/>
@@ -13392,7 +13470,7 @@
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
-      <c r="D963" s="5"/>
+      <c r="D963" s="6"/>
       <c r="E963" s="5"/>
       <c r="F963" s="5"/>
       <c r="G963" s="5"/>
@@ -13403,7 +13481,7 @@
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
-      <c r="D964" s="5"/>
+      <c r="D964" s="6"/>
       <c r="E964" s="5"/>
       <c r="F964" s="5"/>
       <c r="G964" s="5"/>
@@ -13414,7 +13492,7 @@
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
-      <c r="D965" s="5"/>
+      <c r="D965" s="6"/>
       <c r="E965" s="5"/>
       <c r="F965" s="5"/>
       <c r="G965" s="5"/>
@@ -13425,7 +13503,7 @@
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
-      <c r="D966" s="5"/>
+      <c r="D966" s="6"/>
       <c r="E966" s="5"/>
       <c r="F966" s="5"/>
       <c r="G966" s="5"/>
@@ -13436,7 +13514,7 @@
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
-      <c r="D967" s="5"/>
+      <c r="D967" s="6"/>
       <c r="E967" s="5"/>
       <c r="F967" s="5"/>
       <c r="G967" s="5"/>
@@ -13447,7 +13525,7 @@
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
-      <c r="D968" s="5"/>
+      <c r="D968" s="6"/>
       <c r="E968" s="5"/>
       <c r="F968" s="5"/>
       <c r="G968" s="5"/>
@@ -13458,7 +13536,7 @@
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
-      <c r="D969" s="5"/>
+      <c r="D969" s="6"/>
       <c r="E969" s="5"/>
       <c r="F969" s="5"/>
       <c r="G969" s="5"/>
@@ -13469,7 +13547,7 @@
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
-      <c r="D970" s="5"/>
+      <c r="D970" s="6"/>
       <c r="E970" s="5"/>
       <c r="F970" s="5"/>
       <c r="G970" s="5"/>
@@ -13480,7 +13558,7 @@
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
-      <c r="D971" s="5"/>
+      <c r="D971" s="6"/>
       <c r="E971" s="5"/>
       <c r="F971" s="5"/>
       <c r="G971" s="5"/>
@@ -13491,7 +13569,7 @@
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
-      <c r="D972" s="5"/>
+      <c r="D972" s="6"/>
       <c r="E972" s="5"/>
       <c r="F972" s="5"/>
       <c r="G972" s="5"/>
@@ -13502,7 +13580,7 @@
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
-      <c r="D973" s="5"/>
+      <c r="D973" s="6"/>
       <c r="E973" s="5"/>
       <c r="F973" s="5"/>
       <c r="G973" s="5"/>
@@ -13513,7 +13591,7 @@
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
-      <c r="D974" s="5"/>
+      <c r="D974" s="6"/>
       <c r="E974" s="5"/>
       <c r="F974" s="5"/>
       <c r="G974" s="5"/>
@@ -13524,7 +13602,7 @@
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
-      <c r="D975" s="5"/>
+      <c r="D975" s="6"/>
       <c r="E975" s="5"/>
       <c r="F975" s="5"/>
       <c r="G975" s="5"/>
@@ -13535,7 +13613,7 @@
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
-      <c r="D976" s="5"/>
+      <c r="D976" s="6"/>
       <c r="E976" s="5"/>
       <c r="F976" s="5"/>
       <c r="G976" s="5"/>
@@ -13546,7 +13624,7 @@
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
-      <c r="D977" s="5"/>
+      <c r="D977" s="6"/>
       <c r="E977" s="5"/>
       <c r="F977" s="5"/>
       <c r="G977" s="5"/>
@@ -13557,7 +13635,7 @@
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
-      <c r="D978" s="5"/>
+      <c r="D978" s="6"/>
       <c r="E978" s="5"/>
       <c r="F978" s="5"/>
       <c r="G978" s="5"/>
@@ -13568,7 +13646,7 @@
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
-      <c r="D979" s="5"/>
+      <c r="D979" s="6"/>
       <c r="E979" s="5"/>
       <c r="F979" s="5"/>
       <c r="G979" s="5"/>
@@ -13579,7 +13657,7 @@
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
-      <c r="D980" s="5"/>
+      <c r="D980" s="6"/>
       <c r="E980" s="5"/>
       <c r="F980" s="5"/>
       <c r="G980" s="5"/>
@@ -13590,7 +13668,7 @@
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
-      <c r="D981" s="5"/>
+      <c r="D981" s="6"/>
       <c r="E981" s="5"/>
       <c r="F981" s="5"/>
       <c r="G981" s="5"/>
@@ -13601,7 +13679,7 @@
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
-      <c r="D982" s="5"/>
+      <c r="D982" s="6"/>
       <c r="E982" s="5"/>
       <c r="F982" s="5"/>
       <c r="G982" s="5"/>
@@ -13612,7 +13690,7 @@
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
-      <c r="D983" s="5"/>
+      <c r="D983" s="6"/>
       <c r="E983" s="5"/>
       <c r="F983" s="5"/>
       <c r="G983" s="5"/>
@@ -13623,7 +13701,7 @@
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
-      <c r="D984" s="5"/>
+      <c r="D984" s="6"/>
       <c r="E984" s="5"/>
       <c r="F984" s="5"/>
       <c r="G984" s="5"/>
@@ -13634,7 +13712,7 @@
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
-      <c r="D985" s="5"/>
+      <c r="D985" s="6"/>
       <c r="E985" s="5"/>
       <c r="F985" s="5"/>
       <c r="G985" s="5"/>
@@ -13645,7 +13723,7 @@
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
-      <c r="D986" s="5"/>
+      <c r="D986" s="6"/>
       <c r="E986" s="5"/>
       <c r="F986" s="5"/>
       <c r="G986" s="5"/>
@@ -13656,7 +13734,7 @@
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
-      <c r="D987" s="5"/>
+      <c r="D987" s="6"/>
       <c r="E987" s="5"/>
       <c r="F987" s="5"/>
       <c r="G987" s="5"/>
@@ -13667,7 +13745,7 @@
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
-      <c r="D988" s="5"/>
+      <c r="D988" s="6"/>
       <c r="E988" s="5"/>
       <c r="F988" s="5"/>
       <c r="G988" s="5"/>
@@ -13678,7 +13756,7 @@
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
-      <c r="D989" s="5"/>
+      <c r="D989" s="6"/>
       <c r="E989" s="5"/>
       <c r="F989" s="5"/>
       <c r="G989" s="5"/>
@@ -13689,7 +13767,7 @@
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
-      <c r="D990" s="5"/>
+      <c r="D990" s="6"/>
       <c r="E990" s="5"/>
       <c r="F990" s="5"/>
       <c r="G990" s="5"/>
@@ -13700,7 +13778,7 @@
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
-      <c r="D991" s="5"/>
+      <c r="D991" s="6"/>
       <c r="E991" s="5"/>
       <c r="F991" s="5"/>
       <c r="G991" s="5"/>
@@ -13711,7 +13789,7 @@
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
-      <c r="D992" s="5"/>
+      <c r="D992" s="6"/>
       <c r="E992" s="5"/>
       <c r="F992" s="5"/>
       <c r="G992" s="5"/>
@@ -13722,7 +13800,7 @@
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
-      <c r="D993" s="5"/>
+      <c r="D993" s="6"/>
       <c r="E993" s="5"/>
       <c r="F993" s="5"/>
       <c r="G993" s="5"/>
@@ -13733,7 +13811,7 @@
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
-      <c r="D994" s="5"/>
+      <c r="D994" s="6"/>
       <c r="E994" s="5"/>
       <c r="F994" s="5"/>
       <c r="G994" s="5"/>
@@ -13744,7 +13822,7 @@
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
-      <c r="D995" s="5"/>
+      <c r="D995" s="6"/>
       <c r="E995" s="5"/>
       <c r="F995" s="5"/>
       <c r="G995" s="5"/>
@@ -13755,7 +13833,7 @@
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
+      <c r="D996" s="6"/>
       <c r="E996" s="5"/>
       <c r="F996" s="5"/>
       <c r="G996" s="5"/>
@@ -13766,7 +13844,7 @@
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
-      <c r="D997" s="5"/>
+      <c r="D997" s="6"/>
       <c r="E997" s="5"/>
       <c r="F997" s="5"/>
       <c r="G997" s="5"/>
@@ -13777,7 +13855,7 @@
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
+      <c r="D998" s="6"/>
       <c r="E998" s="5"/>
       <c r="F998" s="5"/>
       <c r="G998" s="5"/>
@@ -13788,7 +13866,7 @@
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
-      <c r="D999" s="5"/>
+      <c r="D999" s="6"/>
       <c r="E999" s="5"/>
       <c r="F999" s="5"/>
       <c r="G999" s="5"/>
@@ -13799,7 +13877,7 @@
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
-      <c r="D1000" s="5"/>
+      <c r="D1000" s="6"/>
       <c r="E1000" s="5"/>
       <c r="F1000" s="5"/>
       <c r="G1000" s="5"/>
@@ -13810,7 +13888,7 @@
       <c r="A1001" s="5"/>
       <c r="B1001" s="5"/>
       <c r="C1001" s="5"/>
-      <c r="D1001" s="5"/>
+      <c r="D1001" s="6"/>
       <c r="E1001" s="5"/>
       <c r="F1001" s="5"/>
       <c r="G1001" s="5"/>
@@ -13821,7 +13899,7 @@
       <c r="A1002" s="5"/>
       <c r="B1002" s="5"/>
       <c r="C1002" s="5"/>
-      <c r="D1002" s="5"/>
+      <c r="D1002" s="6"/>
       <c r="E1002" s="5"/>
       <c r="F1002" s="5"/>
       <c r="G1002" s="5"/>
@@ -13832,7 +13910,7 @@
       <c r="A1003" s="5"/>
       <c r="B1003" s="5"/>
       <c r="C1003" s="5"/>
-      <c r="D1003" s="5"/>
+      <c r="D1003" s="6"/>
       <c r="E1003" s="5"/>
       <c r="F1003" s="5"/>
       <c r="G1003" s="5"/>
@@ -13843,7 +13921,7 @@
       <c r="A1004" s="5"/>
       <c r="B1004" s="5"/>
       <c r="C1004" s="5"/>
-      <c r="D1004" s="5"/>
+      <c r="D1004" s="6"/>
       <c r="E1004" s="5"/>
       <c r="F1004" s="5"/>
       <c r="G1004" s="5"/>
@@ -13854,7 +13932,7 @@
       <c r="A1005" s="5"/>
       <c r="B1005" s="5"/>
       <c r="C1005" s="5"/>
-      <c r="D1005" s="5"/>
+      <c r="D1005" s="6"/>
       <c r="E1005" s="5"/>
       <c r="F1005" s="5"/>
       <c r="G1005" s="5"/>
@@ -13865,7 +13943,7 @@
       <c r="A1006" s="5"/>
       <c r="B1006" s="5"/>
       <c r="C1006" s="5"/>
-      <c r="D1006" s="5"/>
+      <c r="D1006" s="6"/>
       <c r="E1006" s="5"/>
       <c r="F1006" s="5"/>
       <c r="G1006" s="5"/>
@@ -13876,7 +13954,7 @@
       <c r="A1007" s="5"/>
       <c r="B1007" s="5"/>
       <c r="C1007" s="5"/>
-      <c r="D1007" s="5"/>
+      <c r="D1007" s="6"/>
       <c r="E1007" s="5"/>
       <c r="F1007" s="5"/>
       <c r="G1007" s="5"/>
@@ -13887,7 +13965,7 @@
       <c r="A1008" s="5"/>
       <c r="B1008" s="5"/>
       <c r="C1008" s="5"/>
-      <c r="D1008" s="5"/>
+      <c r="D1008" s="6"/>
       <c r="E1008" s="5"/>
       <c r="F1008" s="5"/>
       <c r="G1008" s="5"/>
@@ -13898,7 +13976,7 @@
       <c r="A1009" s="5"/>
       <c r="B1009" s="5"/>
       <c r="C1009" s="5"/>
-      <c r="D1009" s="5"/>
+      <c r="D1009" s="6"/>
       <c r="E1009" s="5"/>
       <c r="F1009" s="5"/>
       <c r="G1009" s="5"/>
@@ -13909,7 +13987,7 @@
       <c r="A1010" s="5"/>
       <c r="B1010" s="5"/>
       <c r="C1010" s="5"/>
-      <c r="D1010" s="5"/>
+      <c r="D1010" s="6"/>
       <c r="E1010" s="5"/>
       <c r="F1010" s="5"/>
       <c r="G1010" s="5"/>
@@ -13920,7 +13998,7 @@
       <c r="A1011" s="5"/>
       <c r="B1011" s="5"/>
       <c r="C1011" s="5"/>
-      <c r="D1011" s="5"/>
+      <c r="D1011" s="6"/>
       <c r="E1011" s="5"/>
       <c r="F1011" s="5"/>
       <c r="G1011" s="5"/>
@@ -13931,7 +14009,7 @@
       <c r="A1012" s="5"/>
       <c r="B1012" s="5"/>
       <c r="C1012" s="5"/>
-      <c r="D1012" s="5"/>
+      <c r="D1012" s="6"/>
       <c r="E1012" s="5"/>
       <c r="F1012" s="5"/>
       <c r="G1012" s="5"/>
@@ -13942,7 +14020,7 @@
       <c r="A1013" s="5"/>
       <c r="B1013" s="5"/>
       <c r="C1013" s="5"/>
-      <c r="D1013" s="5"/>
+      <c r="D1013" s="6"/>
       <c r="E1013" s="5"/>
       <c r="F1013" s="5"/>
       <c r="G1013" s="5"/>
@@ -13953,7 +14031,7 @@
       <c r="A1014" s="5"/>
       <c r="B1014" s="5"/>
       <c r="C1014" s="5"/>
-      <c r="D1014" s="5"/>
+      <c r="D1014" s="6"/>
       <c r="E1014" s="5"/>
       <c r="F1014" s="5"/>
       <c r="G1014" s="5"/>
@@ -13964,7 +14042,7 @@
       <c r="A1015" s="5"/>
       <c r="B1015" s="5"/>
       <c r="C1015" s="5"/>
-      <c r="D1015" s="5"/>
+      <c r="D1015" s="6"/>
       <c r="E1015" s="5"/>
       <c r="F1015" s="5"/>
       <c r="G1015" s="5"/>
@@ -13975,7 +14053,7 @@
       <c r="A1016" s="5"/>
       <c r="B1016" s="5"/>
       <c r="C1016" s="5"/>
-      <c r="D1016" s="5"/>
+      <c r="D1016" s="6"/>
       <c r="E1016" s="5"/>
       <c r="F1016" s="5"/>
       <c r="G1016" s="5"/>
@@ -13986,7 +14064,7 @@
       <c r="A1017" s="5"/>
       <c r="B1017" s="5"/>
       <c r="C1017" s="5"/>
-      <c r="D1017" s="5"/>
+      <c r="D1017" s="6"/>
       <c r="E1017" s="5"/>
       <c r="F1017" s="5"/>
       <c r="G1017" s="5"/>
@@ -13997,7 +14075,7 @@
       <c r="A1018" s="5"/>
       <c r="B1018" s="5"/>
       <c r="C1018" s="5"/>
-      <c r="D1018" s="5"/>
+      <c r="D1018" s="6"/>
       <c r="E1018" s="5"/>
       <c r="F1018" s="5"/>
       <c r="G1018" s="5"/>
@@ -14008,7 +14086,7 @@
       <c r="A1019" s="5"/>
       <c r="B1019" s="5"/>
       <c r="C1019" s="5"/>
-      <c r="D1019" s="5"/>
+      <c r="D1019" s="6"/>
       <c r="E1019" s="5"/>
       <c r="F1019" s="5"/>
       <c r="G1019" s="5"/>
@@ -14019,7 +14097,7 @@
       <c r="A1020" s="5"/>
       <c r="B1020" s="5"/>
       <c r="C1020" s="5"/>
-      <c r="D1020" s="5"/>
+      <c r="D1020" s="6"/>
       <c r="E1020" s="5"/>
       <c r="F1020" s="5"/>
       <c r="G1020" s="5"/>
@@ -14030,7 +14108,7 @@
       <c r="A1021" s="5"/>
       <c r="B1021" s="5"/>
       <c r="C1021" s="5"/>
-      <c r="D1021" s="5"/>
+      <c r="D1021" s="6"/>
       <c r="E1021" s="5"/>
       <c r="F1021" s="5"/>
       <c r="G1021" s="5"/>
@@ -14041,7 +14119,7 @@
       <c r="A1022" s="5"/>
       <c r="B1022" s="5"/>
       <c r="C1022" s="5"/>
-      <c r="D1022" s="5"/>
+      <c r="D1022" s="6"/>
       <c r="E1022" s="5"/>
       <c r="F1022" s="5"/>
       <c r="G1022" s="5"/>
@@ -14052,7 +14130,7 @@
       <c r="A1023" s="5"/>
       <c r="B1023" s="5"/>
       <c r="C1023" s="5"/>
-      <c r="D1023" s="5"/>
+      <c r="D1023" s="6"/>
       <c r="E1023" s="5"/>
       <c r="F1023" s="5"/>
       <c r="G1023" s="5"/>
@@ -14063,7 +14141,7 @@
       <c r="A1024" s="5"/>
       <c r="B1024" s="5"/>
       <c r="C1024" s="5"/>
-      <c r="D1024" s="5"/>
+      <c r="D1024" s="6"/>
       <c r="E1024" s="5"/>
       <c r="F1024" s="5"/>
       <c r="G1024" s="5"/>
@@ -14071,13 +14149,7 @@
       <c r="I1024" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I121" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ANGELONI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ATRASO">
       <formula>NOT(ISERROR(SEARCH("ATRASO",I1)))</formula>
